--- a/chapter18/datasets/data.xlsx
+++ b/chapter18/datasets/data.xlsx
@@ -25,50 +25,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进水COD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COD去除率 %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出水COD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>有机负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进水量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水力负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碱度负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进水温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进水VFA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进水TSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出水VFA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,6 +49,42 @@
   </si>
   <si>
     <t>当地最低气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总固体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥发性固体物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总磷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出COD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出VFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力负荷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,6 +219,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -485,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,9 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S621"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J430" sqref="J430"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -508,52 +576,52 @@
     <row r="1" spans="1:19" ht="30" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -567,7 +635,7 @@
         <v>3000</v>
       </c>
       <c r="D2">
-        <v>2289</v>
+        <v>22.89</v>
       </c>
       <c r="E2" s="1">
         <v>1.0344827586206897</v>
@@ -622,7 +690,7 @@
         <v>4200</v>
       </c>
       <c r="D3">
-        <v>2325</v>
+        <v>23.25</v>
       </c>
       <c r="E3" s="1">
         <v>1.4482758620689655</v>
@@ -676,7 +744,7 @@
         <v>5280</v>
       </c>
       <c r="D4">
-        <v>2345</v>
+        <v>23.45</v>
       </c>
       <c r="E4" s="1">
         <v>1.8206896551724139</v>
@@ -729,7 +797,7 @@
         <v>6480</v>
       </c>
       <c r="D5">
-        <v>2403</v>
+        <v>24.03</v>
       </c>
       <c r="E5" s="1">
         <v>2.2344827586206897</v>
@@ -782,7 +850,7 @@
         <v>8880</v>
       </c>
       <c r="D6">
-        <v>2343</v>
+        <v>23.43</v>
       </c>
       <c r="E6" s="1">
         <v>3.0620689655172413</v>
@@ -835,7 +903,7 @@
         <v>11760</v>
       </c>
       <c r="D7">
-        <v>2412</v>
+        <v>24.12</v>
       </c>
       <c r="E7" s="1">
         <v>4.0551724137931036</v>
@@ -888,7 +956,7 @@
         <v>12000</v>
       </c>
       <c r="D8">
-        <v>2179</v>
+        <v>21.79</v>
       </c>
       <c r="E8" s="1">
         <v>4.1379310344827589</v>
@@ -941,7 +1009,7 @@
         <v>13200</v>
       </c>
       <c r="D9">
-        <v>2108</v>
+        <v>21.08</v>
       </c>
       <c r="E9" s="1">
         <v>4.5517241379310347</v>
@@ -994,7 +1062,7 @@
         <v>12000</v>
       </c>
       <c r="D10">
-        <v>2190</v>
+        <v>21.9</v>
       </c>
       <c r="E10" s="1">
         <v>4.1379310344827589</v>
@@ -1047,7 +1115,7 @@
         <v>10800</v>
       </c>
       <c r="D11">
-        <v>2173</v>
+        <v>21.73</v>
       </c>
       <c r="E11" s="1">
         <v>3.7241379310344827</v>
@@ -1100,7 +1168,7 @@
         <v>10800</v>
       </c>
       <c r="D12">
-        <v>2239</v>
+        <v>22.39</v>
       </c>
       <c r="E12" s="1">
         <v>3.7241379310344827</v>
@@ -1153,7 +1221,7 @@
         <v>10800</v>
       </c>
       <c r="D13">
-        <v>2088</v>
+        <v>20.88</v>
       </c>
       <c r="E13" s="1">
         <v>3.7241379310344827</v>
@@ -1206,7 +1274,7 @@
         <v>10800</v>
       </c>
       <c r="D14">
-        <v>1835</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="E14" s="1">
         <v>3.7241379310344827</v>
@@ -1259,7 +1327,7 @@
         <v>10800</v>
       </c>
       <c r="D15">
-        <v>2191</v>
+        <v>21.91</v>
       </c>
       <c r="E15" s="1">
         <v>3.7241379310344827</v>
@@ -1312,7 +1380,7 @@
         <v>10800</v>
       </c>
       <c r="D16">
-        <v>2233</v>
+        <v>22.33</v>
       </c>
       <c r="E16" s="1">
         <v>3.7241379310344827</v>
@@ -1365,7 +1433,7 @@
         <v>13200</v>
       </c>
       <c r="D17">
-        <v>2082</v>
+        <v>20.82</v>
       </c>
       <c r="E17" s="1">
         <v>4.5517241379310347</v>
@@ -1418,7 +1486,7 @@
         <v>16800</v>
       </c>
       <c r="D18">
-        <v>2018</v>
+        <v>20.18</v>
       </c>
       <c r="E18" s="1">
         <v>5.7931034482758621</v>
@@ -1471,7 +1539,7 @@
         <v>16800</v>
       </c>
       <c r="D19">
-        <v>2199</v>
+        <v>21.99</v>
       </c>
       <c r="E19" s="1">
         <v>5.7931034482758621</v>
@@ -1524,7 +1592,7 @@
         <v>18000</v>
       </c>
       <c r="D20">
-        <v>2158</v>
+        <v>21.58</v>
       </c>
       <c r="E20" s="1">
         <v>6.2068965517241379</v>
@@ -1577,7 +1645,7 @@
         <v>19200</v>
       </c>
       <c r="D21">
-        <v>2101</v>
+        <v>21.01</v>
       </c>
       <c r="E21" s="1">
         <v>6.6206896551724137</v>
@@ -1630,7 +1698,7 @@
         <v>19200</v>
       </c>
       <c r="D22">
-        <v>1897</v>
+        <v>18.97</v>
       </c>
       <c r="E22" s="1">
         <v>6.6206896551724137</v>
@@ -1683,7 +1751,7 @@
         <v>18000</v>
       </c>
       <c r="D23">
-        <v>1801</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="E23" s="1">
         <v>6.2068965517241379</v>
@@ -1736,7 +1804,7 @@
         <v>18000</v>
       </c>
       <c r="D24">
-        <v>1796</v>
+        <v>17.96</v>
       </c>
       <c r="E24" s="1">
         <v>6.2068965517241379</v>
@@ -1789,7 +1857,7 @@
         <v>19200</v>
       </c>
       <c r="D25">
-        <v>1725</v>
+        <v>17.25</v>
       </c>
       <c r="E25" s="1">
         <v>6.6206896551724137</v>
@@ -1842,7 +1910,7 @@
         <v>20400</v>
       </c>
       <c r="D26">
-        <v>1777</v>
+        <v>17.77</v>
       </c>
       <c r="E26" s="1">
         <v>7.0344827586206895</v>
@@ -1895,7 +1963,7 @@
         <v>19200</v>
       </c>
       <c r="D27">
-        <v>1993</v>
+        <v>19.93</v>
       </c>
       <c r="E27" s="1">
         <v>6.6206896551724137</v>
@@ -1948,7 +2016,7 @@
         <v>20400</v>
       </c>
       <c r="D28">
-        <v>2215</v>
+        <v>22.15</v>
       </c>
       <c r="E28" s="1">
         <v>7.0344827586206895</v>
@@ -2001,7 +2069,7 @@
         <v>21600</v>
       </c>
       <c r="D29">
-        <v>2057</v>
+        <v>20.57</v>
       </c>
       <c r="E29" s="1">
         <v>7.4482758620689653</v>
@@ -2054,7 +2122,7 @@
         <v>21600</v>
       </c>
       <c r="D30">
-        <v>1949</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="E30" s="1">
         <v>7.4482758620689653</v>
@@ -2107,7 +2175,7 @@
         <v>21600</v>
       </c>
       <c r="D31">
-        <v>2366</v>
+        <v>23.66</v>
       </c>
       <c r="E31" s="1">
         <v>7.4482758620689653</v>
@@ -2160,7 +2228,7 @@
         <v>21600</v>
       </c>
       <c r="D32">
-        <v>2473</v>
+        <v>24.73</v>
       </c>
       <c r="E32" s="1">
         <v>7.4482758620689653</v>
@@ -2213,7 +2281,7 @@
         <v>21600</v>
       </c>
       <c r="D33">
-        <v>2018</v>
+        <v>20.18</v>
       </c>
       <c r="E33" s="1">
         <v>7.4482758620689653</v>
@@ -2266,7 +2334,7 @@
         <v>21600</v>
       </c>
       <c r="D34">
-        <v>2209</v>
+        <v>22.09</v>
       </c>
       <c r="E34" s="1">
         <v>7.4482758620689653</v>
@@ -2319,7 +2387,7 @@
         <v>21600</v>
       </c>
       <c r="D35">
-        <v>2130</v>
+        <v>21.3</v>
       </c>
       <c r="E35" s="1">
         <v>7.4482758620689653</v>
@@ -2372,7 +2440,7 @@
         <v>21600</v>
       </c>
       <c r="D36">
-        <v>2150</v>
+        <v>21.5</v>
       </c>
       <c r="E36" s="1">
         <v>7.4482758620689653</v>
@@ -2425,7 +2493,7 @@
         <v>21600</v>
       </c>
       <c r="D37">
-        <v>1990</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E37" s="1">
         <v>7.4482758620689653</v>
@@ -2478,7 +2546,7 @@
         <v>21600</v>
       </c>
       <c r="D38">
-        <v>2134</v>
+        <v>21.34</v>
       </c>
       <c r="E38" s="1">
         <v>7.4482758620689653</v>
@@ -2531,7 +2599,7 @@
         <v>21600</v>
       </c>
       <c r="D39">
-        <v>2080</v>
+        <v>20.8</v>
       </c>
       <c r="E39" s="1">
         <v>7.4482758620689653</v>
@@ -2584,7 +2652,7 @@
         <v>21600</v>
       </c>
       <c r="D40">
-        <v>2026</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="E40" s="1">
         <v>7.4482758620689653</v>
@@ -2637,7 +2705,7 @@
         <v>21600</v>
       </c>
       <c r="D41">
-        <v>2104</v>
+        <v>21.04</v>
       </c>
       <c r="E41" s="1">
         <v>7.4482758620689653</v>
@@ -2690,7 +2758,7 @@
         <v>17280</v>
       </c>
       <c r="D42">
-        <v>1864</v>
+        <v>18.64</v>
       </c>
       <c r="E42" s="1">
         <v>5.9586206896551728</v>
@@ -2743,7 +2811,7 @@
         <v>14400</v>
       </c>
       <c r="D43">
-        <v>1952</v>
+        <v>19.52</v>
       </c>
       <c r="E43" s="1">
         <v>4.9655172413793105</v>
@@ -2796,7 +2864,7 @@
         <v>14880</v>
       </c>
       <c r="D44">
-        <v>1994</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="E44" s="1">
         <v>5.1310344827586203</v>
@@ -2849,7 +2917,7 @@
         <v>11280</v>
       </c>
       <c r="D45">
-        <v>1916</v>
+        <v>19.16</v>
       </c>
       <c r="E45" s="1">
         <v>3.8896551724137929</v>
@@ -2902,7 +2970,7 @@
         <v>11280</v>
       </c>
       <c r="D46">
-        <v>2212</v>
+        <v>22.12</v>
       </c>
       <c r="E46" s="1">
         <v>3.8896551724137929</v>
@@ -2955,7 +3023,7 @@
         <v>11280</v>
       </c>
       <c r="D47">
-        <v>2142</v>
+        <v>21.42</v>
       </c>
       <c r="E47" s="1">
         <v>3.8896551724137929</v>
@@ -3008,7 +3076,7 @@
         <v>9120</v>
       </c>
       <c r="D48">
-        <v>2021</v>
+        <v>20.21</v>
       </c>
       <c r="E48" s="1">
         <v>3.1448275862068966</v>
@@ -3061,7 +3129,7 @@
         <v>9600</v>
       </c>
       <c r="D49">
-        <v>2076</v>
+        <v>20.76</v>
       </c>
       <c r="E49" s="1">
         <v>3.3103448275862069</v>
@@ -3114,7 +3182,7 @@
         <v>11520</v>
       </c>
       <c r="D50">
-        <v>2292</v>
+        <v>22.92</v>
       </c>
       <c r="E50" s="1">
         <v>3.9724137931034482</v>
@@ -3167,7 +3235,7 @@
         <v>10560</v>
       </c>
       <c r="D51">
-        <v>2400</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1">
         <v>3.6413793103448278</v>
@@ -3220,7 +3288,7 @@
         <v>10320</v>
       </c>
       <c r="D52">
-        <v>2101</v>
+        <v>21.01</v>
       </c>
       <c r="E52" s="1">
         <v>3.5586206896551724</v>
@@ -3273,7 +3341,7 @@
         <v>9600</v>
       </c>
       <c r="D53">
-        <v>2441</v>
+        <v>24.41</v>
       </c>
       <c r="E53" s="1">
         <v>3.3103448275862069</v>
@@ -3326,7 +3394,7 @@
         <v>9600</v>
       </c>
       <c r="D54">
-        <v>2347</v>
+        <v>23.47</v>
       </c>
       <c r="E54" s="1">
         <v>3.3103448275862069</v>
@@ -3379,7 +3447,7 @@
         <v>8400</v>
       </c>
       <c r="D55">
-        <v>2226</v>
+        <v>22.26</v>
       </c>
       <c r="E55" s="1">
         <v>2.896551724137931</v>
@@ -3432,7 +3500,7 @@
         <v>12720</v>
       </c>
       <c r="D56">
-        <v>1907</v>
+        <v>19.07</v>
       </c>
       <c r="E56" s="1">
         <v>4.386206896551724</v>
@@ -3485,7 +3553,7 @@
         <v>12000</v>
       </c>
       <c r="D57">
-        <v>1881</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="E57" s="1">
         <v>4.1379310344827589</v>
@@ -3538,7 +3606,7 @@
         <v>18000</v>
       </c>
       <c r="D58">
-        <v>2407</v>
+        <v>24.07</v>
       </c>
       <c r="E58" s="1">
         <v>6.2068965517241379</v>
@@ -3591,7 +3659,7 @@
         <v>16560</v>
       </c>
       <c r="D59">
-        <v>2373</v>
+        <v>23.73</v>
       </c>
       <c r="E59" s="1">
         <v>5.7103448275862068</v>
@@ -3644,7 +3712,7 @@
         <v>15840</v>
       </c>
       <c r="D60">
-        <v>2400</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1">
         <v>5.4620689655172416</v>
@@ -3697,7 +3765,7 @@
         <v>17520</v>
       </c>
       <c r="D61">
-        <v>2541</v>
+        <v>25.41</v>
       </c>
       <c r="E61" s="1">
         <v>6.0413793103448272</v>
@@ -3750,7 +3818,7 @@
         <v>18480</v>
       </c>
       <c r="D62">
-        <v>2270</v>
+        <v>22.7</v>
       </c>
       <c r="E62" s="1">
         <v>6.3724137931034486</v>
@@ -3803,7 +3871,7 @@
         <v>18720</v>
       </c>
       <c r="D63">
-        <v>2477</v>
+        <v>24.77</v>
       </c>
       <c r="E63" s="1">
         <v>6.455172413793103</v>
@@ -3856,7 +3924,7 @@
         <v>18720</v>
       </c>
       <c r="D64">
-        <v>2318</v>
+        <v>23.18</v>
       </c>
       <c r="E64" s="1">
         <v>6.455172413793103</v>
@@ -3909,7 +3977,7 @@
         <v>18240</v>
       </c>
       <c r="D65">
-        <v>2028</v>
+        <v>20.28</v>
       </c>
       <c r="E65" s="1">
         <v>6.2896551724137932</v>
@@ -3962,7 +4030,7 @@
         <v>18720</v>
       </c>
       <c r="D66">
-        <v>2447</v>
+        <v>24.47</v>
       </c>
       <c r="E66" s="1">
         <v>6.455172413793103</v>
@@ -4015,7 +4083,7 @@
         <v>19680</v>
       </c>
       <c r="D67">
-        <v>2428</v>
+        <v>24.28</v>
       </c>
       <c r="E67" s="1">
         <v>6.7862068965517244</v>
@@ -4068,7 +4136,7 @@
         <v>19440</v>
       </c>
       <c r="D68">
-        <v>2400</v>
+        <v>24</v>
       </c>
       <c r="E68" s="1">
         <v>6.703448275862069</v>
@@ -4121,7 +4189,7 @@
         <v>19680</v>
       </c>
       <c r="D69">
-        <v>2346</v>
+        <v>23.46</v>
       </c>
       <c r="E69" s="1">
         <v>6.7862068965517244</v>
@@ -4174,7 +4242,7 @@
         <v>19440</v>
       </c>
       <c r="D70">
-        <v>2455</v>
+        <v>24.55</v>
       </c>
       <c r="E70" s="1">
         <v>6.703448275862069</v>
@@ -4227,7 +4295,7 @@
         <v>18240</v>
       </c>
       <c r="D71">
-        <v>2371</v>
+        <v>23.71</v>
       </c>
       <c r="E71" s="1">
         <v>6.2896551724137932</v>
@@ -4280,7 +4348,7 @@
         <v>18240</v>
       </c>
       <c r="D72">
-        <v>2087</v>
+        <v>20.87</v>
       </c>
       <c r="E72" s="1">
         <v>6.2896551724137932</v>
@@ -4333,7 +4401,7 @@
         <v>17760</v>
       </c>
       <c r="D73">
-        <v>1902</v>
+        <v>19.02</v>
       </c>
       <c r="E73" s="1">
         <v>6.1241379310344826</v>
@@ -4386,7 +4454,7 @@
         <v>17040</v>
       </c>
       <c r="D74">
-        <v>1761</v>
+        <v>17.61</v>
       </c>
       <c r="E74" s="1">
         <v>5.8758620689655174</v>
@@ -4439,7 +4507,7 @@
         <v>18960</v>
       </c>
       <c r="D75">
-        <v>1635</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="E75" s="1">
         <v>6.5379310344827584</v>
@@ -4492,7 +4560,7 @@
         <v>18480</v>
       </c>
       <c r="D76">
-        <v>1799</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="E76" s="1">
         <v>6.3724137931034486</v>
@@ -4545,7 +4613,7 @@
         <v>19680</v>
       </c>
       <c r="D77">
-        <v>1742</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E77" s="1">
         <v>6.7862068965517244</v>
@@ -4598,7 +4666,7 @@
         <v>19200</v>
       </c>
       <c r="D78">
-        <v>2043</v>
+        <v>20.43</v>
       </c>
       <c r="E78" s="1">
         <v>6.6206896551724137</v>
@@ -4651,7 +4719,7 @@
         <v>18480</v>
       </c>
       <c r="D79">
-        <v>1966</v>
+        <v>19.66</v>
       </c>
       <c r="E79" s="1">
         <v>6.3724137931034486</v>
@@ -4704,7 +4772,7 @@
         <v>18720</v>
       </c>
       <c r="D80">
-        <v>1853</v>
+        <v>18.53</v>
       </c>
       <c r="E80" s="1">
         <v>6.455172413793103</v>
@@ -4757,7 +4825,7 @@
         <v>18960</v>
       </c>
       <c r="D81">
-        <v>2087</v>
+        <v>20.87</v>
       </c>
       <c r="E81" s="1">
         <v>6.5379310344827584</v>
@@ -4810,7 +4878,7 @@
         <v>18480</v>
       </c>
       <c r="D82">
-        <v>1924</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="E82" s="1">
         <v>6.3724137931034486</v>
@@ -4863,7 +4931,7 @@
         <v>18480</v>
       </c>
       <c r="D83">
-        <v>2132</v>
+        <v>21.32</v>
       </c>
       <c r="E83" s="1">
         <v>6.3724137931034486</v>
@@ -4916,7 +4984,7 @@
         <v>19440</v>
       </c>
       <c r="D84">
-        <v>2153</v>
+        <v>21.53</v>
       </c>
       <c r="E84" s="1">
         <v>6.703448275862069</v>
@@ -4966,7 +5034,7 @@
         <v>19680</v>
       </c>
       <c r="D85">
-        <v>2347</v>
+        <v>23.47</v>
       </c>
       <c r="E85" s="1">
         <v>6.7862068965517244</v>
@@ -5016,7 +5084,7 @@
         <v>19680</v>
       </c>
       <c r="D86">
-        <v>2003</v>
+        <v>20.03</v>
       </c>
       <c r="E86" s="1">
         <v>6.7862068965517244</v>
@@ -5069,7 +5137,7 @@
         <v>19200</v>
       </c>
       <c r="D87">
-        <v>2124</v>
+        <v>21.24</v>
       </c>
       <c r="E87" s="1">
         <v>6.6206896551724137</v>
@@ -5122,7 +5190,7 @@
         <v>19440</v>
       </c>
       <c r="D88">
-        <v>2179</v>
+        <v>21.79</v>
       </c>
       <c r="E88" s="1">
         <v>6.703448275862069</v>
@@ -5175,7 +5243,7 @@
         <v>18960</v>
       </c>
       <c r="D89">
-        <v>2347</v>
+        <v>23.47</v>
       </c>
       <c r="E89" s="1">
         <v>6.5379310344827584</v>
@@ -5228,7 +5296,7 @@
         <v>19200</v>
       </c>
       <c r="D90">
-        <v>2530</v>
+        <v>25.3</v>
       </c>
       <c r="E90" s="1">
         <v>6.6206896551724137</v>
@@ -5281,7 +5349,7 @@
         <v>19200</v>
       </c>
       <c r="D91">
-        <v>2323</v>
+        <v>23.23</v>
       </c>
       <c r="E91" s="1">
         <v>6.6206896551724137</v>
@@ -5334,7 +5402,7 @@
         <v>19200</v>
       </c>
       <c r="D92">
-        <v>2351</v>
+        <v>23.51</v>
       </c>
       <c r="E92" s="1">
         <v>6.6206896551724137</v>
@@ -5387,7 +5455,7 @@
         <v>19200</v>
       </c>
       <c r="D93">
-        <v>2093</v>
+        <v>20.93</v>
       </c>
       <c r="E93" s="1">
         <v>6.6206896551724137</v>
@@ -5440,7 +5508,7 @@
         <v>18000</v>
       </c>
       <c r="D94">
-        <v>2028</v>
+        <v>20.28</v>
       </c>
       <c r="E94" s="1">
         <v>6.2068965517241379</v>
@@ -5493,7 +5561,7 @@
         <v>18720</v>
       </c>
       <c r="D95">
-        <v>2379</v>
+        <v>23.79</v>
       </c>
       <c r="E95" s="1">
         <v>6.455172413793103</v>
@@ -5546,7 +5614,7 @@
         <v>19200</v>
       </c>
       <c r="D96">
-        <v>2484</v>
+        <v>24.84</v>
       </c>
       <c r="E96" s="1">
         <v>6.6206896551724137</v>
@@ -5599,7 +5667,7 @@
         <v>18240</v>
       </c>
       <c r="D97">
-        <v>2616</v>
+        <v>26.16</v>
       </c>
       <c r="E97" s="1">
         <v>6.2896551724137932</v>
@@ -5652,7 +5720,7 @@
         <v>18720</v>
       </c>
       <c r="D98">
-        <v>2401</v>
+        <v>24.01</v>
       </c>
       <c r="E98" s="1">
         <v>6.455172413793103</v>
@@ -5705,7 +5773,7 @@
         <v>19200</v>
       </c>
       <c r="D99">
-        <v>2214</v>
+        <v>22.14</v>
       </c>
       <c r="E99" s="1">
         <v>6.6206896551724137</v>
@@ -5758,7 +5826,7 @@
         <v>19200</v>
       </c>
       <c r="D100">
-        <v>2303</v>
+        <v>23.03</v>
       </c>
       <c r="E100" s="1">
         <v>6.6206896551724137</v>
@@ -5811,7 +5879,7 @@
         <v>19200</v>
       </c>
       <c r="D101">
-        <v>2292</v>
+        <v>22.92</v>
       </c>
       <c r="E101" s="1">
         <v>6.6206896551724137</v>
@@ -5864,7 +5932,7 @@
         <v>19200</v>
       </c>
       <c r="D102">
-        <v>2008</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E102" s="1">
         <v>6.6206896551724137</v>
@@ -5917,7 +5985,7 @@
         <v>18480</v>
       </c>
       <c r="D103">
-        <v>2382</v>
+        <v>23.82</v>
       </c>
       <c r="E103" s="1">
         <v>6.3724137931034486</v>
@@ -5970,7 +6038,7 @@
         <v>18720</v>
       </c>
       <c r="D104">
-        <v>2418</v>
+        <v>24.18</v>
       </c>
       <c r="E104" s="1">
         <v>6.455172413793103</v>
@@ -6023,7 +6091,7 @@
         <v>18480</v>
       </c>
       <c r="D105">
-        <v>2613</v>
+        <v>26.13</v>
       </c>
       <c r="E105" s="1">
         <v>6.3724137931034486</v>
@@ -6076,7 +6144,7 @@
         <v>18720</v>
       </c>
       <c r="D106">
-        <v>2550</v>
+        <v>25.5</v>
       </c>
       <c r="E106" s="1">
         <v>6.455172413793103</v>
@@ -6129,7 +6197,7 @@
         <v>20640</v>
       </c>
       <c r="D107">
-        <v>2673</v>
+        <v>26.73</v>
       </c>
       <c r="E107" s="1">
         <v>7.1172413793103448</v>
@@ -6182,7 +6250,7 @@
         <v>20640</v>
       </c>
       <c r="D108">
-        <v>2462</v>
+        <v>24.62</v>
       </c>
       <c r="E108" s="1">
         <v>7.1172413793103448</v>
@@ -6235,7 +6303,7 @@
         <v>20640</v>
       </c>
       <c r="D109">
-        <v>2486</v>
+        <v>24.86</v>
       </c>
       <c r="E109" s="1">
         <v>7.1172413793103448</v>
@@ -6288,7 +6356,7 @@
         <v>18240</v>
       </c>
       <c r="D110">
-        <v>2027</v>
+        <v>20.27</v>
       </c>
       <c r="E110" s="1">
         <v>6.2896551724137932</v>
@@ -6341,7 +6409,7 @@
         <v>20160</v>
       </c>
       <c r="D111">
-        <v>2302</v>
+        <v>23.02</v>
       </c>
       <c r="E111" s="1">
         <v>6.9517241379310342</v>
@@ -6394,7 +6462,7 @@
         <v>10800</v>
       </c>
       <c r="D112">
-        <v>1887</v>
+        <v>18.87</v>
       </c>
       <c r="E112" s="1">
         <v>3.7241379310344827</v>
@@ -6447,7 +6515,7 @@
         <v>20880</v>
       </c>
       <c r="D113">
-        <v>2095</v>
+        <v>20.95</v>
       </c>
       <c r="E113" s="1">
         <v>7.2</v>
@@ -6500,7 +6568,7 @@
         <v>20640</v>
       </c>
       <c r="D114">
-        <v>2348</v>
+        <v>23.48</v>
       </c>
       <c r="E114" s="1">
         <v>7.1172413793103448</v>
@@ -6553,7 +6621,7 @@
         <v>20640</v>
       </c>
       <c r="D115">
-        <v>2324</v>
+        <v>23.24</v>
       </c>
       <c r="E115" s="1">
         <v>7.1172413793103448</v>
@@ -6606,7 +6674,7 @@
         <v>20640</v>
       </c>
       <c r="D116">
-        <v>2356</v>
+        <v>23.56</v>
       </c>
       <c r="E116" s="1">
         <v>7.1172413793103448</v>
@@ -6659,7 +6727,7 @@
         <v>20640</v>
       </c>
       <c r="D117">
-        <v>2671</v>
+        <v>26.71</v>
       </c>
       <c r="E117" s="1">
         <v>7.1172413793103448</v>
@@ -6712,7 +6780,7 @@
         <v>20400</v>
       </c>
       <c r="D118">
-        <v>2727</v>
+        <v>27.27</v>
       </c>
       <c r="E118" s="1">
         <v>7.0344827586206895</v>
@@ -6765,7 +6833,7 @@
         <v>20400</v>
       </c>
       <c r="D119">
-        <v>2751</v>
+        <v>27.51</v>
       </c>
       <c r="E119" s="1">
         <v>7.0344827586206895</v>
@@ -6818,7 +6886,7 @@
         <v>19200</v>
       </c>
       <c r="D120">
-        <v>2504</v>
+        <v>25.04</v>
       </c>
       <c r="E120" s="1">
         <v>6.6206896551724137</v>
@@ -6871,7 +6939,7 @@
         <v>20640</v>
       </c>
       <c r="D121">
-        <v>2233</v>
+        <v>22.33</v>
       </c>
       <c r="E121" s="1">
         <v>7.1172413793103448</v>
@@ -6924,7 +6992,7 @@
         <v>20880</v>
       </c>
       <c r="D122">
-        <v>2335</v>
+        <v>23.35</v>
       </c>
       <c r="E122" s="1">
         <v>7.2</v>
@@ -6977,7 +7045,7 @@
         <v>21120</v>
       </c>
       <c r="D123">
-        <v>2218</v>
+        <v>22.18</v>
       </c>
       <c r="E123" s="1">
         <v>7.2827586206896555</v>
@@ -7030,7 +7098,7 @@
         <v>20880</v>
       </c>
       <c r="D124">
-        <v>2254</v>
+        <v>22.54</v>
       </c>
       <c r="E124" s="1">
         <v>7.2</v>
@@ -7083,7 +7151,7 @@
         <v>21120</v>
       </c>
       <c r="D125">
-        <v>2431</v>
+        <v>24.31</v>
       </c>
       <c r="E125" s="1">
         <v>7.2827586206896555</v>
@@ -7136,7 +7204,7 @@
         <v>21120</v>
       </c>
       <c r="D126">
-        <v>2351</v>
+        <v>23.51</v>
       </c>
       <c r="E126" s="1">
         <v>7.2827586206896555</v>
@@ -7189,7 +7257,7 @@
         <v>20880</v>
       </c>
       <c r="D127">
-        <v>2556</v>
+        <v>25.56</v>
       </c>
       <c r="E127" s="1">
         <v>7.2</v>
@@ -7242,7 +7310,7 @@
         <v>21120</v>
       </c>
       <c r="D128">
-        <v>2507</v>
+        <v>25.07</v>
       </c>
       <c r="E128" s="1">
         <v>7.2827586206896555</v>
@@ -7295,7 +7363,7 @@
         <v>21120</v>
       </c>
       <c r="D129">
-        <v>2261</v>
+        <v>22.61</v>
       </c>
       <c r="E129" s="1">
         <v>7.2827586206896555</v>
@@ -7348,7 +7416,7 @@
         <v>21360</v>
       </c>
       <c r="D130">
-        <v>2153</v>
+        <v>21.53</v>
       </c>
       <c r="E130" s="1">
         <v>7.36551724137931</v>
@@ -7401,7 +7469,7 @@
         <v>19200</v>
       </c>
       <c r="D131">
-        <v>2402</v>
+        <v>24.02</v>
       </c>
       <c r="E131" s="1">
         <v>6.6206896551724137</v>
@@ -7454,7 +7522,7 @@
         <v>18000</v>
       </c>
       <c r="D132">
-        <v>2608</v>
+        <v>26.08</v>
       </c>
       <c r="E132" s="1">
         <v>6.2068965517241379</v>
@@ -7507,7 +7575,7 @@
         <v>18720</v>
       </c>
       <c r="D133">
-        <v>2575</v>
+        <v>25.75</v>
       </c>
       <c r="E133" s="1">
         <v>6.455172413793103</v>
@@ -7560,7 +7628,7 @@
         <v>18240</v>
       </c>
       <c r="D134">
-        <v>2555</v>
+        <v>25.55</v>
       </c>
       <c r="E134" s="1">
         <v>6.2896551724137932</v>
@@ -7613,7 +7681,7 @@
         <v>19200</v>
       </c>
       <c r="D135">
-        <v>2422</v>
+        <v>24.22</v>
       </c>
       <c r="E135" s="1">
         <v>6.6206896551724137</v>
@@ -7666,7 +7734,7 @@
         <v>20160</v>
       </c>
       <c r="D136">
-        <v>2198</v>
+        <v>21.98</v>
       </c>
       <c r="E136" s="1">
         <v>6.9517241379310342</v>
@@ -7719,7 +7787,7 @@
         <v>18960</v>
       </c>
       <c r="D137">
-        <v>2283</v>
+        <v>22.83</v>
       </c>
       <c r="E137" s="1">
         <v>6.5379310344827584</v>
@@ -7772,7 +7840,7 @@
         <v>18960</v>
       </c>
       <c r="D138">
-        <v>2345</v>
+        <v>23.45</v>
       </c>
       <c r="E138" s="1">
         <v>6.5379310344827584</v>
@@ -7825,7 +7893,7 @@
         <v>18720</v>
       </c>
       <c r="D139">
-        <v>2619</v>
+        <v>26.19</v>
       </c>
       <c r="E139" s="1">
         <v>6.455172413793103</v>
@@ -7878,7 +7946,7 @@
         <v>19200</v>
       </c>
       <c r="D140">
-        <v>2783</v>
+        <v>27.83</v>
       </c>
       <c r="E140" s="1">
         <v>6.6206896551724137</v>
@@ -7931,7 +7999,7 @@
         <v>19200</v>
       </c>
       <c r="D141">
-        <v>2496</v>
+        <v>24.96</v>
       </c>
       <c r="E141" s="1">
         <v>6.6206896551724137</v>
@@ -7984,7 +8052,7 @@
         <v>19200</v>
       </c>
       <c r="D142">
-        <v>2661</v>
+        <v>26.61</v>
       </c>
       <c r="E142" s="1">
         <v>6.6206896551724137</v>
@@ -8037,7 +8105,7 @@
         <v>19200</v>
       </c>
       <c r="D143">
-        <v>1826</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="E143" s="1">
         <v>6.6206896551724137</v>
@@ -8090,7 +8158,7 @@
         <v>19200</v>
       </c>
       <c r="D144">
-        <v>2609</v>
+        <v>26.09</v>
       </c>
       <c r="E144" s="1">
         <v>6.6206896551724137</v>
@@ -8143,7 +8211,7 @@
         <v>19200</v>
       </c>
       <c r="D145">
-        <v>2282</v>
+        <v>22.82</v>
       </c>
       <c r="E145" s="1">
         <v>6.6206896551724137</v>
@@ -8196,7 +8264,7 @@
         <v>16800</v>
       </c>
       <c r="D146">
-        <v>2601</v>
+        <v>26.01</v>
       </c>
       <c r="E146" s="1">
         <v>5.7931034482758621</v>
@@ -8249,7 +8317,7 @@
         <v>18480</v>
       </c>
       <c r="D147">
-        <v>2475</v>
+        <v>24.75</v>
       </c>
       <c r="E147" s="1">
         <v>6.3724137931034486</v>
@@ -8302,7 +8370,7 @@
         <v>18480</v>
       </c>
       <c r="D148">
-        <v>2693</v>
+        <v>26.93</v>
       </c>
       <c r="E148" s="1">
         <v>6.3724137931034486</v>
@@ -8355,7 +8423,7 @@
         <v>18000</v>
       </c>
       <c r="D149">
-        <v>2656</v>
+        <v>26.56</v>
       </c>
       <c r="E149" s="1">
         <v>6.2068965517241379</v>
@@ -8408,7 +8476,7 @@
         <v>18000</v>
       </c>
       <c r="D150">
-        <v>2609</v>
+        <v>26.09</v>
       </c>
       <c r="E150" s="1">
         <v>6.2068965517241379</v>
@@ -8461,7 +8529,7 @@
         <v>17280</v>
       </c>
       <c r="D151">
-        <v>2531</v>
+        <v>25.31</v>
       </c>
       <c r="E151" s="1">
         <v>5.9586206896551728</v>
@@ -8514,7 +8582,7 @@
         <v>17520</v>
       </c>
       <c r="D152">
-        <v>2531</v>
+        <v>25.31</v>
       </c>
       <c r="E152" s="1">
         <v>6.0413793103448272</v>
@@ -8567,7 +8635,7 @@
         <v>16560</v>
       </c>
       <c r="D153">
-        <v>2305</v>
+        <v>23.05</v>
       </c>
       <c r="E153" s="1">
         <v>5.7103448275862068</v>
@@ -8620,7 +8688,7 @@
         <v>18960</v>
       </c>
       <c r="D154">
-        <v>2028</v>
+        <v>20.28</v>
       </c>
       <c r="E154" s="1">
         <v>6.5379310344827584</v>
@@ -8673,7 +8741,7 @@
         <v>18000</v>
       </c>
       <c r="D155">
-        <v>2181</v>
+        <v>21.81</v>
       </c>
       <c r="E155" s="1">
         <v>6.2068965517241379</v>
@@ -8726,7 +8794,7 @@
         <v>18000</v>
       </c>
       <c r="D156">
-        <v>2314</v>
+        <v>23.14</v>
       </c>
       <c r="E156" s="1">
         <v>6.2068965517241379</v>
@@ -8779,7 +8847,7 @@
         <v>18240</v>
       </c>
       <c r="D157">
-        <v>2055</v>
+        <v>20.55</v>
       </c>
       <c r="E157" s="1">
         <v>6.2896551724137932</v>
@@ -8832,7 +8900,7 @@
         <v>16800</v>
       </c>
       <c r="D158">
-        <v>2344</v>
+        <v>23.44</v>
       </c>
       <c r="E158" s="1">
         <v>5.7931034482758621</v>
@@ -8885,7 +8953,7 @@
         <v>17280</v>
       </c>
       <c r="D159">
-        <v>2318</v>
+        <v>23.18</v>
       </c>
       <c r="E159" s="1">
         <v>5.9586206896551728</v>
@@ -8938,7 +9006,7 @@
         <v>17760</v>
       </c>
       <c r="D160">
-        <v>2349</v>
+        <v>23.49</v>
       </c>
       <c r="E160" s="1">
         <v>6.1241379310344826</v>
@@ -8991,7 +9059,7 @@
         <v>19440</v>
       </c>
       <c r="D161">
-        <v>2123</v>
+        <v>21.23</v>
       </c>
       <c r="E161" s="1">
         <v>6.703448275862069</v>
@@ -9044,7 +9112,7 @@
         <v>19440</v>
       </c>
       <c r="D162">
-        <v>2149</v>
+        <v>21.49</v>
       </c>
       <c r="E162" s="1">
         <v>6.703448275862069</v>
@@ -9097,7 +9165,7 @@
         <v>19200</v>
       </c>
       <c r="D163">
-        <v>2170</v>
+        <v>21.7</v>
       </c>
       <c r="E163" s="1">
         <v>6.6206896551724137</v>
@@ -9150,7 +9218,7 @@
         <v>18240</v>
       </c>
       <c r="D164">
-        <v>2128</v>
+        <v>21.28</v>
       </c>
       <c r="E164" s="1">
         <v>6.2896551724137932</v>
@@ -9203,7 +9271,7 @@
         <v>18000</v>
       </c>
       <c r="D165">
-        <v>2510</v>
+        <v>25.1</v>
       </c>
       <c r="E165" s="1">
         <v>6.2068965517241379</v>
@@ -9256,7 +9324,7 @@
         <v>18000</v>
       </c>
       <c r="D166">
-        <v>2310</v>
+        <v>23.1</v>
       </c>
       <c r="E166" s="1">
         <v>6.2068965517241379</v>
@@ -9309,7 +9377,7 @@
         <v>18000</v>
       </c>
       <c r="D167">
-        <v>2391</v>
+        <v>23.91</v>
       </c>
       <c r="E167" s="1">
         <v>6.2068965517241379</v>
@@ -9362,7 +9430,7 @@
         <v>18000</v>
       </c>
       <c r="D168">
-        <v>2362</v>
+        <v>23.62</v>
       </c>
       <c r="E168" s="1">
         <v>6.2068965517241379</v>
@@ -9415,7 +9483,7 @@
         <v>18000</v>
       </c>
       <c r="D169">
-        <v>2472</v>
+        <v>24.72</v>
       </c>
       <c r="E169" s="1">
         <v>6.2068965517241379</v>
@@ -9468,7 +9536,7 @@
         <v>17760</v>
       </c>
       <c r="D170">
-        <v>2162</v>
+        <v>21.62</v>
       </c>
       <c r="E170" s="1">
         <v>6.1241379310344826</v>
@@ -9521,7 +9589,7 @@
         <v>17760</v>
       </c>
       <c r="D171">
-        <v>2281</v>
+        <v>22.81</v>
       </c>
       <c r="E171" s="1">
         <v>6.1241379310344826</v>
@@ -9574,7 +9642,7 @@
         <v>16800</v>
       </c>
       <c r="D172">
-        <v>2312</v>
+        <v>23.12</v>
       </c>
       <c r="E172" s="1">
         <v>5.7931034482758621</v>
@@ -9627,7 +9695,7 @@
         <v>16800</v>
       </c>
       <c r="D173">
-        <v>2177</v>
+        <v>21.77</v>
       </c>
       <c r="E173" s="1">
         <v>5.7931034482758621</v>
@@ -9680,7 +9748,7 @@
         <v>16800</v>
       </c>
       <c r="D174">
-        <v>2350</v>
+        <v>23.5</v>
       </c>
       <c r="E174" s="1">
         <v>5.7931034482758621</v>
@@ -9733,7 +9801,7 @@
         <v>18000</v>
       </c>
       <c r="D175">
-        <v>2316</v>
+        <v>23.16</v>
       </c>
       <c r="E175" s="1">
         <v>6.2068965517241379</v>
@@ -9786,7 +9854,7 @@
         <v>18000</v>
       </c>
       <c r="D176">
-        <v>2139</v>
+        <v>21.39</v>
       </c>
       <c r="E176" s="1">
         <v>6.2068965517241379</v>
@@ -9839,7 +9907,7 @@
         <v>18000</v>
       </c>
       <c r="D177">
-        <v>1794</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="E177" s="1">
         <v>6.2068965517241379</v>
@@ -9892,7 +9960,7 @@
         <v>17760</v>
       </c>
       <c r="D178">
-        <v>2190</v>
+        <v>21.9</v>
       </c>
       <c r="E178" s="1">
         <v>6.1241379310344826</v>
@@ -9945,7 +10013,7 @@
         <v>18000</v>
       </c>
       <c r="D179">
-        <v>2417</v>
+        <v>24.17</v>
       </c>
       <c r="E179" s="1">
         <v>6.2068965517241379</v>
@@ -9998,7 +10066,7 @@
         <v>12000</v>
       </c>
       <c r="D180">
-        <v>2139</v>
+        <v>21.39</v>
       </c>
       <c r="E180" s="1">
         <v>4.1379310344827589</v>
@@ -10051,7 +10119,7 @@
         <v>16800</v>
       </c>
       <c r="D181">
-        <v>2198</v>
+        <v>21.98</v>
       </c>
       <c r="E181" s="1">
         <v>5.7931034482758621</v>
@@ -10104,7 +10172,7 @@
         <v>16320</v>
       </c>
       <c r="D182">
-        <v>2164</v>
+        <v>21.64</v>
       </c>
       <c r="E182" s="1">
         <v>5.6275862068965514</v>
@@ -10157,7 +10225,7 @@
         <v>16320</v>
       </c>
       <c r="D183">
-        <v>2232</v>
+        <v>22.32</v>
       </c>
       <c r="E183" s="1">
         <v>5.6275862068965514</v>
@@ -10210,7 +10278,7 @@
         <v>12960</v>
       </c>
       <c r="D184">
-        <v>2463</v>
+        <v>24.63</v>
       </c>
       <c r="E184" s="1">
         <v>4.4689655172413794</v>
@@ -10263,7 +10331,7 @@
         <v>14880</v>
       </c>
       <c r="D185">
-        <v>2030</v>
+        <v>20.3</v>
       </c>
       <c r="E185" s="1">
         <v>5.1310344827586203</v>
@@ -10316,7 +10384,7 @@
         <v>17520</v>
       </c>
       <c r="D186">
-        <v>2506</v>
+        <v>25.06</v>
       </c>
       <c r="E186" s="1">
         <v>6.0413793103448272</v>
@@ -10369,7 +10437,7 @@
         <v>16800</v>
       </c>
       <c r="D187">
-        <v>2379</v>
+        <v>23.79</v>
       </c>
       <c r="E187" s="1">
         <v>5.7931034482758621</v>
@@ -10422,7 +10490,7 @@
         <v>17760</v>
       </c>
       <c r="D188">
-        <v>2362</v>
+        <v>23.62</v>
       </c>
       <c r="E188" s="1">
         <v>6.1241379310344826</v>
@@ -10475,7 +10543,7 @@
         <v>16800</v>
       </c>
       <c r="D189">
-        <v>2442</v>
+        <v>24.42</v>
       </c>
       <c r="E189" s="1">
         <v>5.7931034482758621</v>
@@ -10528,7 +10596,7 @@
         <v>16800</v>
       </c>
       <c r="D190">
-        <v>2682</v>
+        <v>26.82</v>
       </c>
       <c r="E190" s="1">
         <v>5.7931034482758621</v>
@@ -10581,7 +10649,7 @@
         <v>17280</v>
       </c>
       <c r="D191">
-        <v>2678</v>
+        <v>26.78</v>
       </c>
       <c r="E191" s="1">
         <v>5.9586206896551728</v>
@@ -10634,7 +10702,7 @@
         <v>17280</v>
       </c>
       <c r="D192">
-        <v>2430</v>
+        <v>24.3</v>
       </c>
       <c r="E192" s="1">
         <v>5.9586206896551728</v>
@@ -10687,7 +10755,7 @@
         <v>17280</v>
       </c>
       <c r="D193">
-        <v>2527</v>
+        <v>25.27</v>
       </c>
       <c r="E193" s="1">
         <v>5.9586206896551728</v>
@@ -10740,7 +10808,7 @@
         <v>18240</v>
       </c>
       <c r="D194">
-        <v>2617</v>
+        <v>26.17</v>
       </c>
       <c r="E194" s="1">
         <v>6.2896551724137932</v>
@@ -10793,7 +10861,7 @@
         <v>17040</v>
       </c>
       <c r="D195">
-        <v>2527</v>
+        <v>25.27</v>
       </c>
       <c r="E195" s="1">
         <v>5.8758620689655174</v>
@@ -10846,7 +10914,7 @@
         <v>17520</v>
       </c>
       <c r="D196">
-        <v>2441</v>
+        <v>24.41</v>
       </c>
       <c r="E196" s="1">
         <v>6.0413793103448272</v>
@@ -10899,7 +10967,7 @@
         <v>16800</v>
       </c>
       <c r="D197">
-        <v>2714</v>
+        <v>27.14</v>
       </c>
       <c r="E197" s="1">
         <v>5.7931034482758621</v>
@@ -10952,7 +11020,7 @@
         <v>18480</v>
       </c>
       <c r="D198">
-        <v>2840</v>
+        <v>28.4</v>
       </c>
       <c r="E198" s="1">
         <v>6.3724137931034486</v>
@@ -11005,7 +11073,7 @@
         <v>17760</v>
       </c>
       <c r="D199">
-        <v>2190</v>
+        <v>21.9</v>
       </c>
       <c r="E199" s="1">
         <v>6.1241379310344826</v>
@@ -11058,7 +11126,7 @@
         <v>17280</v>
       </c>
       <c r="D200">
-        <v>2434</v>
+        <v>24.34</v>
       </c>
       <c r="E200" s="1">
         <v>5.9586206896551728</v>
@@ -11111,7 +11179,7 @@
         <v>20160</v>
       </c>
       <c r="D201">
-        <v>2287</v>
+        <v>22.87</v>
       </c>
       <c r="E201" s="1">
         <v>6.9517241379310342</v>
@@ -11164,7 +11232,7 @@
         <v>17280</v>
       </c>
       <c r="D202">
-        <v>2214</v>
+        <v>22.14</v>
       </c>
       <c r="E202" s="1">
         <v>5.9586206896551728</v>
@@ -11217,7 +11285,7 @@
         <v>17280</v>
       </c>
       <c r="D203">
-        <v>2572</v>
+        <v>25.72</v>
       </c>
       <c r="E203" s="1">
         <v>5.9586206896551728</v>
@@ -11270,7 +11338,7 @@
         <v>19200</v>
       </c>
       <c r="D204">
-        <v>2629</v>
+        <v>26.29</v>
       </c>
       <c r="E204" s="1">
         <v>6.6206896551724137</v>
@@ -11323,7 +11391,7 @@
         <v>18240</v>
       </c>
       <c r="D205">
-        <v>2482</v>
+        <v>24.82</v>
       </c>
       <c r="E205" s="1">
         <v>6.2896551724137932</v>
@@ -11376,7 +11444,7 @@
         <v>18000</v>
       </c>
       <c r="D206">
-        <v>2219</v>
+        <v>22.19</v>
       </c>
       <c r="E206" s="1">
         <v>6.2068965517241379</v>
@@ -11429,7 +11497,7 @@
         <v>18480</v>
       </c>
       <c r="D207">
-        <v>2390</v>
+        <v>23.9</v>
       </c>
       <c r="E207" s="1">
         <v>6.3724137931034486</v>
@@ -11482,7 +11550,7 @@
         <v>18960</v>
       </c>
       <c r="D208">
-        <v>2596</v>
+        <v>25.96</v>
       </c>
       <c r="E208" s="1">
         <v>6.5379310344827584</v>
@@ -11535,7 +11603,7 @@
         <v>19200</v>
       </c>
       <c r="D209">
-        <v>2482</v>
+        <v>24.82</v>
       </c>
       <c r="E209" s="1">
         <v>6.6206896551724137</v>
@@ -11588,7 +11656,7 @@
         <v>17040</v>
       </c>
       <c r="D210">
-        <v>2538</v>
+        <v>25.38</v>
       </c>
       <c r="E210" s="1">
         <v>5.8758620689655174</v>
@@ -11641,7 +11709,7 @@
         <v>16800</v>
       </c>
       <c r="D211">
-        <v>2625</v>
+        <v>26.25</v>
       </c>
       <c r="E211" s="1">
         <v>5.7931034482758621</v>
@@ -11694,7 +11762,7 @@
         <v>17520</v>
       </c>
       <c r="D212">
-        <v>2709</v>
+        <v>27.09</v>
       </c>
       <c r="E212" s="1">
         <v>6.0413793103448272</v>
@@ -11747,7 +11815,7 @@
         <v>14880</v>
       </c>
       <c r="D213">
-        <v>2741</v>
+        <v>27.41</v>
       </c>
       <c r="E213" s="1">
         <v>5.1310344827586203</v>
@@ -11800,7 +11868,7 @@
         <v>16800</v>
       </c>
       <c r="D214">
-        <v>2410</v>
+        <v>24.1</v>
       </c>
       <c r="E214" s="1">
         <v>5.7931034482758621</v>
@@ -11853,7 +11921,7 @@
         <v>17040</v>
       </c>
       <c r="D215">
-        <v>2439</v>
+        <v>24.39</v>
       </c>
       <c r="E215" s="1">
         <v>5.8758620689655174</v>
@@ -11906,7 +11974,7 @@
         <v>19200</v>
       </c>
       <c r="D216">
-        <v>2189</v>
+        <v>21.89</v>
       </c>
       <c r="E216" s="1">
         <v>6.6206896551724137</v>
@@ -11959,7 +12027,7 @@
         <v>18240</v>
       </c>
       <c r="D217">
-        <v>2508</v>
+        <v>25.08</v>
       </c>
       <c r="E217" s="1">
         <v>6.2896551724137932</v>
@@ -12012,7 +12080,7 @@
         <v>18240</v>
       </c>
       <c r="D218">
-        <v>2326</v>
+        <v>23.26</v>
       </c>
       <c r="E218" s="1">
         <v>6.2896551724137932</v>
@@ -12065,7 +12133,7 @@
         <v>16800</v>
       </c>
       <c r="D219">
-        <v>2177</v>
+        <v>21.77</v>
       </c>
       <c r="E219" s="1">
         <v>5.7931034482758621</v>
@@ -12118,7 +12186,7 @@
         <v>17520</v>
       </c>
       <c r="D220">
-        <v>2185</v>
+        <v>21.85</v>
       </c>
       <c r="E220" s="1">
         <v>6.0413793103448272</v>
@@ -12171,7 +12239,7 @@
         <v>18960</v>
       </c>
       <c r="D221">
-        <v>1968</v>
+        <v>19.68</v>
       </c>
       <c r="E221" s="1">
         <v>6.5379310344827584</v>
@@ -12224,7 +12292,7 @@
         <v>17280</v>
       </c>
       <c r="D222">
-        <v>1648</v>
+        <v>16.48</v>
       </c>
       <c r="E222" s="1">
         <v>5.9586206896551728</v>
@@ -12277,7 +12345,7 @@
         <v>17760</v>
       </c>
       <c r="D223">
-        <v>2290</v>
+        <v>22.9</v>
       </c>
       <c r="E223" s="1">
         <v>6.1241379310344826</v>
@@ -12330,7 +12398,7 @@
         <v>17760</v>
       </c>
       <c r="D224">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="E224" s="1">
         <v>6.1241379310344826</v>
@@ -12383,7 +12451,7 @@
         <v>17520</v>
       </c>
       <c r="D225">
-        <v>2105</v>
+        <v>21.05</v>
       </c>
       <c r="E225" s="1">
         <v>6.0413793103448272</v>
@@ -12436,7 +12504,7 @@
         <v>16800</v>
       </c>
       <c r="D226">
-        <v>2621</v>
+        <v>26.21</v>
       </c>
       <c r="E226" s="1">
         <v>5.7931034482758621</v>
@@ -12489,7 +12557,7 @@
         <v>18720</v>
       </c>
       <c r="D227">
-        <v>2339</v>
+        <v>23.39</v>
       </c>
       <c r="E227" s="1">
         <v>6.455172413793103</v>
@@ -12542,7 +12610,7 @@
         <v>18720</v>
       </c>
       <c r="D228">
-        <v>2629</v>
+        <v>26.29</v>
       </c>
       <c r="E228" s="1">
         <v>6.455172413793103</v>
@@ -12595,7 +12663,7 @@
         <v>18480</v>
       </c>
       <c r="D229">
-        <v>2313</v>
+        <v>23.13</v>
       </c>
       <c r="E229" s="1">
         <v>6.3724137931034486</v>
@@ -12648,7 +12716,7 @@
         <v>18000</v>
       </c>
       <c r="D230">
-        <v>2304</v>
+        <v>23.04</v>
       </c>
       <c r="E230" s="1">
         <v>6.2068965517241379</v>
@@ -12701,7 +12769,7 @@
         <v>18960</v>
       </c>
       <c r="D231">
-        <v>2346</v>
+        <v>23.46</v>
       </c>
       <c r="E231" s="1">
         <v>6.5379310344827584</v>
@@ -12754,7 +12822,7 @@
         <v>18720</v>
       </c>
       <c r="D232">
-        <v>2510</v>
+        <v>25.1</v>
       </c>
       <c r="E232" s="1">
         <v>6.455172413793103</v>
@@ -12807,7 +12875,7 @@
         <v>18960</v>
       </c>
       <c r="D233">
-        <v>2300</v>
+        <v>23</v>
       </c>
       <c r="E233" s="1">
         <v>6.5379310344827584</v>
@@ -12860,7 +12928,7 @@
         <v>16800</v>
       </c>
       <c r="D234">
-        <v>2518</v>
+        <v>25.18</v>
       </c>
       <c r="E234" s="1">
         <v>5.7931034482758621</v>
@@ -12913,7 +12981,7 @@
         <v>14400</v>
       </c>
       <c r="D235">
-        <v>2247</v>
+        <v>22.47</v>
       </c>
       <c r="E235" s="1">
         <v>4.9655172413793105</v>
@@ -12966,7 +13034,7 @@
         <v>16800</v>
       </c>
       <c r="D236">
-        <v>2177</v>
+        <v>21.77</v>
       </c>
       <c r="E236" s="1">
         <v>5.7931034482758621</v>
@@ -13019,7 +13087,7 @@
         <v>16800</v>
       </c>
       <c r="D237">
-        <v>2309</v>
+        <v>23.09</v>
       </c>
       <c r="E237" s="1">
         <v>5.7931034482758621</v>
@@ -13072,7 +13140,7 @@
         <v>16800</v>
       </c>
       <c r="D238">
-        <v>1819</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="E238" s="1">
         <v>5.7931034482758621</v>
@@ -13125,7 +13193,7 @@
         <v>16320</v>
       </c>
       <c r="D239">
-        <v>2173</v>
+        <v>21.73</v>
       </c>
       <c r="E239" s="1">
         <v>5.6275862068965514</v>
@@ -13178,7 +13246,7 @@
         <v>18000</v>
       </c>
       <c r="D240">
-        <v>2428</v>
+        <v>24.28</v>
       </c>
       <c r="E240" s="1">
         <v>6.2068965517241379</v>
@@ -13231,7 +13299,7 @@
         <v>16320</v>
       </c>
       <c r="D241">
-        <v>2551</v>
+        <v>25.51</v>
       </c>
       <c r="E241" s="1">
         <v>5.6275862068965514</v>
@@ -13284,7 +13352,7 @@
         <v>15840</v>
       </c>
       <c r="D242">
-        <v>2498</v>
+        <v>24.98</v>
       </c>
       <c r="E242" s="1">
         <v>5.4620689655172416</v>
@@ -13337,7 +13405,7 @@
         <v>16560</v>
       </c>
       <c r="D243">
-        <v>2428</v>
+        <v>24.28</v>
       </c>
       <c r="E243" s="1">
         <v>5.7103448275862068</v>
@@ -13390,7 +13458,7 @@
         <v>14400</v>
       </c>
       <c r="D244">
-        <v>2286</v>
+        <v>22.86</v>
       </c>
       <c r="E244" s="1">
         <v>4.9655172413793105</v>
@@ -13443,7 +13511,7 @@
         <v>15120</v>
       </c>
       <c r="D245">
-        <v>2590</v>
+        <v>25.9</v>
       </c>
       <c r="E245" s="1">
         <v>5.2137931034482756</v>
@@ -13496,7 +13564,7 @@
         <v>15600</v>
       </c>
       <c r="D246">
-        <v>2573</v>
+        <v>25.73</v>
       </c>
       <c r="E246" s="1">
         <v>5.3793103448275863</v>
@@ -13549,7 +13617,7 @@
         <v>16320</v>
       </c>
       <c r="D247">
-        <v>2636</v>
+        <v>26.36</v>
       </c>
       <c r="E247" s="1">
         <v>5.6275862068965514</v>
@@ -13602,7 +13670,7 @@
         <v>16320</v>
       </c>
       <c r="D248">
-        <v>2362</v>
+        <v>23.62</v>
       </c>
       <c r="E248" s="1">
         <v>5.6275862068965514</v>
@@ -13655,7 +13723,7 @@
         <v>15120</v>
       </c>
       <c r="D249">
-        <v>2468</v>
+        <v>24.68</v>
       </c>
       <c r="E249" s="1">
         <v>5.2137931034482756</v>
@@ -13708,7 +13776,7 @@
         <v>16320</v>
       </c>
       <c r="D250">
-        <v>2712</v>
+        <v>27.12</v>
       </c>
       <c r="E250" s="1">
         <v>5.6275862068965514</v>
@@ -13761,7 +13829,7 @@
         <v>16080</v>
       </c>
       <c r="D251">
-        <v>2603</v>
+        <v>26.03</v>
       </c>
       <c r="E251" s="1">
         <v>5.544827586206897</v>
@@ -13814,7 +13882,7 @@
         <v>15360</v>
       </c>
       <c r="D252">
-        <v>2468</v>
+        <v>24.68</v>
       </c>
       <c r="E252" s="1">
         <v>5.296551724137931</v>
@@ -13867,7 +13935,7 @@
         <v>12960</v>
       </c>
       <c r="D253">
-        <v>2573</v>
+        <v>25.73</v>
       </c>
       <c r="E253" s="1">
         <v>4.4689655172413794</v>
@@ -13920,7 +13988,7 @@
         <v>14400</v>
       </c>
       <c r="D254">
-        <v>2425</v>
+        <v>24.25</v>
       </c>
       <c r="E254" s="1">
         <v>4.9655172413793105</v>
@@ -13973,7 +14041,7 @@
         <v>14400</v>
       </c>
       <c r="D255">
-        <v>2446</v>
+        <v>24.46</v>
       </c>
       <c r="E255" s="1">
         <v>4.9655172413793105</v>
@@ -14026,7 +14094,7 @@
         <v>16080</v>
       </c>
       <c r="D256">
-        <v>2489</v>
+        <v>24.89</v>
       </c>
       <c r="E256" s="1">
         <v>5.544827586206897</v>
@@ -14079,7 +14147,7 @@
         <v>13920</v>
       </c>
       <c r="D257">
-        <v>2864</v>
+        <v>28.64</v>
       </c>
       <c r="E257" s="1">
         <v>4.8</v>
@@ -14132,7 +14200,7 @@
         <v>12720</v>
       </c>
       <c r="D258">
-        <v>2333</v>
+        <v>23.33</v>
       </c>
       <c r="E258" s="1">
         <v>4.386206896551724</v>
@@ -14185,7 +14253,7 @@
         <v>16320</v>
       </c>
       <c r="D259">
-        <v>2116</v>
+        <v>21.16</v>
       </c>
       <c r="E259" s="1">
         <v>5.6275862068965514</v>
@@ -14238,7 +14306,7 @@
         <v>15600</v>
       </c>
       <c r="D260">
-        <v>2071</v>
+        <v>20.71</v>
       </c>
       <c r="E260" s="1">
         <v>5.3793103448275863</v>
@@ -14291,7 +14359,7 @@
         <v>15840</v>
       </c>
       <c r="D261">
-        <v>1931</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="E261" s="1">
         <v>5.4620689655172416</v>
@@ -14344,7 +14412,7 @@
         <v>16080</v>
       </c>
       <c r="D262">
-        <v>2345</v>
+        <v>23.45</v>
       </c>
       <c r="E262" s="1">
         <v>5.544827586206897</v>
@@ -14397,7 +14465,7 @@
         <v>16080</v>
       </c>
       <c r="D263">
-        <v>2271</v>
+        <v>22.71</v>
       </c>
       <c r="E263" s="1">
         <v>5.544827586206897</v>
@@ -14450,7 +14518,7 @@
         <v>15600</v>
       </c>
       <c r="D264">
-        <v>2337</v>
+        <v>23.37</v>
       </c>
       <c r="E264" s="1">
         <v>5.3793103448275863</v>
@@ -14503,7 +14571,7 @@
         <v>14880</v>
       </c>
       <c r="D265">
-        <v>2177</v>
+        <v>21.77</v>
       </c>
       <c r="E265" s="1">
         <v>5.1310344827586203</v>
@@ -14556,7 +14624,7 @@
         <v>16320</v>
       </c>
       <c r="D266">
-        <v>2251</v>
+        <v>22.51</v>
       </c>
       <c r="E266" s="1">
         <v>5.6275862068965514</v>
@@ -14609,7 +14677,7 @@
         <v>16800</v>
       </c>
       <c r="D267">
-        <v>2333</v>
+        <v>23.33</v>
       </c>
       <c r="E267" s="1">
         <v>5.7931034482758621</v>
@@ -14662,7 +14730,7 @@
         <v>16080</v>
       </c>
       <c r="D268">
-        <v>2194</v>
+        <v>21.94</v>
       </c>
       <c r="E268" s="1">
         <v>5.544827586206897</v>
@@ -14715,7 +14783,7 @@
         <v>15600</v>
       </c>
       <c r="D269">
-        <v>2563</v>
+        <v>25.63</v>
       </c>
       <c r="E269" s="1">
         <v>5.3793103448275863</v>
@@ -14768,7 +14836,7 @@
         <v>16080</v>
       </c>
       <c r="D270">
-        <v>2604</v>
+        <v>26.04</v>
       </c>
       <c r="E270" s="1">
         <v>5.544827586206897</v>
@@ -14821,7 +14889,7 @@
         <v>16080</v>
       </c>
       <c r="D271">
-        <v>2476</v>
+        <v>24.76</v>
       </c>
       <c r="E271" s="1">
         <v>5.544827586206897</v>
@@ -14874,7 +14942,7 @@
         <v>15840</v>
       </c>
       <c r="D272">
-        <v>2383</v>
+        <v>23.83</v>
       </c>
       <c r="E272" s="1">
         <v>5.4620689655172416</v>
@@ -14927,7 +14995,7 @@
         <v>15840</v>
       </c>
       <c r="D273">
-        <v>2261</v>
+        <v>22.61</v>
       </c>
       <c r="E273" s="1">
         <v>5.4620689655172416</v>
@@ -14980,7 +15048,7 @@
         <v>16800</v>
       </c>
       <c r="D274">
-        <v>2488</v>
+        <v>24.88</v>
       </c>
       <c r="E274" s="1">
         <v>5.7931034482758621</v>
@@ -15033,7 +15101,7 @@
         <v>14400</v>
       </c>
       <c r="D275">
-        <v>1975</v>
+        <v>19.75</v>
       </c>
       <c r="E275" s="1">
         <v>4.9655172413793105</v>
@@ -15086,7 +15154,7 @@
         <v>14400</v>
       </c>
       <c r="D276">
-        <v>1849</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="E276" s="1">
         <v>4.9655172413793105</v>
@@ -15139,7 +15207,7 @@
         <v>16800</v>
       </c>
       <c r="D277">
-        <v>1765</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="E277" s="1">
         <v>5.7931034482758621</v>
@@ -15192,7 +15260,7 @@
         <v>18240</v>
       </c>
       <c r="D278">
-        <v>1975</v>
+        <v>19.75</v>
       </c>
       <c r="E278" s="1">
         <v>6.2896551724137932</v>
@@ -15245,7 +15313,7 @@
         <v>17280</v>
       </c>
       <c r="D279">
-        <v>1870</v>
+        <v>18.7</v>
       </c>
       <c r="E279" s="1">
         <v>5.9586206896551728</v>
@@ -15298,7 +15366,7 @@
         <v>16080</v>
       </c>
       <c r="D280">
-        <v>2311</v>
+        <v>23.11</v>
       </c>
       <c r="E280" s="1">
         <v>5.544827586206897</v>
@@ -15351,7 +15419,7 @@
         <v>15840</v>
       </c>
       <c r="D281">
-        <v>2147</v>
+        <v>21.47</v>
       </c>
       <c r="E281" s="1">
         <v>5.4620689655172416</v>
@@ -15404,7 +15472,7 @@
         <v>15840</v>
       </c>
       <c r="D282">
-        <v>2038</v>
+        <v>20.38</v>
       </c>
       <c r="E282" s="1">
         <v>5.4620689655172416</v>
@@ -15457,7 +15525,7 @@
         <v>12720</v>
       </c>
       <c r="D283">
-        <v>2427</v>
+        <v>24.27</v>
       </c>
       <c r="E283" s="1">
         <v>4.386206896551724</v>
@@ -15510,7 +15578,7 @@
         <v>13200</v>
       </c>
       <c r="D284">
-        <v>1807</v>
+        <v>18.07</v>
       </c>
       <c r="E284" s="1">
         <v>4.5517241379310347</v>
@@ -15563,7 +15631,7 @@
         <v>16800</v>
       </c>
       <c r="D285">
-        <v>2277</v>
+        <v>22.77</v>
       </c>
       <c r="E285" s="1">
         <v>5.7931034482758621</v>
@@ -15616,7 +15684,7 @@
         <v>17520</v>
       </c>
       <c r="D286">
-        <v>2038</v>
+        <v>20.38</v>
       </c>
       <c r="E286" s="1">
         <v>6.0413793103448272</v>
@@ -15669,7 +15737,7 @@
         <v>15600</v>
       </c>
       <c r="D287">
-        <v>2114</v>
+        <v>21.14</v>
       </c>
       <c r="E287" s="1">
         <v>5.3793103448275863</v>
@@ -15722,7 +15790,7 @@
         <v>15840</v>
       </c>
       <c r="D288">
-        <v>1744</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E288" s="1">
         <v>5.4620689655172416</v>
@@ -15775,7 +15843,7 @@
         <v>14400</v>
       </c>
       <c r="D289">
-        <v>1594</v>
+        <v>15.94</v>
       </c>
       <c r="E289" s="1">
         <v>4.9655172413793105</v>
@@ -15828,7 +15896,7 @@
         <v>15120</v>
       </c>
       <c r="D290">
-        <v>1481</v>
+        <v>14.81</v>
       </c>
       <c r="E290" s="1">
         <v>5.2137931034482756</v>
@@ -15881,7 +15949,7 @@
         <v>15840</v>
       </c>
       <c r="D291">
-        <v>1825</v>
+        <v>18.25</v>
       </c>
       <c r="E291" s="1">
         <v>5.4620689655172416</v>
@@ -15934,7 +16002,7 @@
         <v>17280</v>
       </c>
       <c r="D292">
-        <v>2341</v>
+        <v>23.41</v>
       </c>
       <c r="E292" s="1">
         <v>5.9586206896551728</v>
@@ -15978,7 +16046,7 @@
         <v>18240</v>
       </c>
       <c r="D293">
-        <v>2391</v>
+        <v>23.91</v>
       </c>
       <c r="E293" s="1">
         <v>6.2896551724137932</v>
@@ -16031,7 +16099,7 @@
         <v>16320</v>
       </c>
       <c r="D294">
-        <v>2236</v>
+        <v>22.36</v>
       </c>
       <c r="E294" s="1">
         <v>5.6275862068965514</v>
@@ -16084,7 +16152,7 @@
         <v>18720</v>
       </c>
       <c r="D295">
-        <v>1934</v>
+        <v>19.34</v>
       </c>
       <c r="E295" s="1">
         <v>6.455172413793103</v>
@@ -16137,7 +16205,7 @@
         <v>18240</v>
       </c>
       <c r="D296">
-        <v>2148</v>
+        <v>21.48</v>
       </c>
       <c r="E296" s="1">
         <v>6.2896551724137932</v>
@@ -16190,7 +16258,7 @@
         <v>18000</v>
       </c>
       <c r="D297">
-        <v>2307</v>
+        <v>23.07</v>
       </c>
       <c r="E297" s="1">
         <v>6.2068965517241379</v>
@@ -16243,7 +16311,7 @@
         <v>16800</v>
       </c>
       <c r="D298">
-        <v>2211</v>
+        <v>22.11</v>
       </c>
       <c r="E298" s="1">
         <v>5.7931034482758621</v>
@@ -16296,7 +16364,7 @@
         <v>19440</v>
       </c>
       <c r="D299">
-        <v>2408</v>
+        <v>24.08</v>
       </c>
       <c r="E299" s="1">
         <v>6.703448275862069</v>
@@ -16349,7 +16417,7 @@
         <v>17280</v>
       </c>
       <c r="D300">
-        <v>2144</v>
+        <v>21.44</v>
       </c>
       <c r="E300" s="1">
         <v>5.9586206896551728</v>
@@ -16402,7 +16470,7 @@
         <v>18000</v>
       </c>
       <c r="D301">
-        <v>2280</v>
+        <v>22.8</v>
       </c>
       <c r="E301" s="1">
         <v>6.2068965517241379</v>
@@ -16455,7 +16523,7 @@
         <v>15840</v>
       </c>
       <c r="D302">
-        <v>2356</v>
+        <v>23.56</v>
       </c>
       <c r="E302" s="1">
         <v>5.4620689655172416</v>
@@ -16508,7 +16576,7 @@
         <v>17520</v>
       </c>
       <c r="D303">
-        <v>2276</v>
+        <v>22.76</v>
       </c>
       <c r="E303" s="1">
         <v>6.0413793103448272</v>
@@ -16561,7 +16629,7 @@
         <v>18720</v>
       </c>
       <c r="D304">
-        <v>1800</v>
+        <v>18</v>
       </c>
       <c r="E304" s="1">
         <v>6.455172413793103</v>
@@ -16614,7 +16682,7 @@
         <v>18000</v>
       </c>
       <c r="D305">
-        <v>2104</v>
+        <v>21.04</v>
       </c>
       <c r="E305" s="1">
         <v>6.2068965517241379</v>
@@ -16667,7 +16735,7 @@
         <v>17040</v>
       </c>
       <c r="D306">
-        <v>2356</v>
+        <v>23.56</v>
       </c>
       <c r="E306" s="1">
         <v>5.8758620689655174</v>
@@ -16720,7 +16788,7 @@
         <v>18000</v>
       </c>
       <c r="D307">
-        <v>2148</v>
+        <v>21.48</v>
       </c>
       <c r="E307" s="1">
         <v>6.2068965517241379</v>
@@ -16773,7 +16841,7 @@
         <v>18000</v>
       </c>
       <c r="D308">
-        <v>2008</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="E308" s="1">
         <v>6.2068965517241379</v>
@@ -16826,7 +16894,7 @@
         <v>16800</v>
       </c>
       <c r="D309">
-        <v>1920</v>
+        <v>19.2</v>
       </c>
       <c r="E309" s="1">
         <v>5.7931034482758621</v>
@@ -16879,7 +16947,7 @@
         <v>17040</v>
       </c>
       <c r="D310">
-        <v>2116</v>
+        <v>21.16</v>
       </c>
       <c r="E310" s="1">
         <v>5.8758620689655174</v>
@@ -16932,7 +17000,7 @@
         <v>17040</v>
       </c>
       <c r="D311">
-        <v>1964</v>
+        <v>19.64</v>
       </c>
       <c r="E311" s="1">
         <v>5.8758620689655174</v>
@@ -16985,7 +17053,7 @@
         <v>17760</v>
       </c>
       <c r="D312">
-        <v>2304</v>
+        <v>23.04</v>
       </c>
       <c r="E312" s="1">
         <v>6.1241379310344826</v>
@@ -17038,7 +17106,7 @@
         <v>16560</v>
       </c>
       <c r="D313">
-        <v>2551</v>
+        <v>25.51</v>
       </c>
       <c r="E313" s="1">
         <v>5.7103448275862068</v>
@@ -17091,7 +17159,7 @@
         <v>16800</v>
       </c>
       <c r="D314">
-        <v>2467</v>
+        <v>24.67</v>
       </c>
       <c r="E314" s="1">
         <v>5.7931034482758621</v>
@@ -17144,7 +17212,7 @@
         <v>17280</v>
       </c>
       <c r="D315">
-        <v>2395</v>
+        <v>23.95</v>
       </c>
       <c r="E315" s="1">
         <v>5.9586206896551728</v>
@@ -17197,7 +17265,7 @@
         <v>16800</v>
       </c>
       <c r="D316">
-        <v>2228</v>
+        <v>22.28</v>
       </c>
       <c r="E316" s="1">
         <v>5.7931034482758621</v>
@@ -17250,7 +17318,7 @@
         <v>16320</v>
       </c>
       <c r="D317">
-        <v>2133</v>
+        <v>21.33</v>
       </c>
       <c r="E317" s="1">
         <v>5.6275862068965514</v>
@@ -17303,7 +17371,7 @@
         <v>16800</v>
       </c>
       <c r="D318">
-        <v>2507</v>
+        <v>25.07</v>
       </c>
       <c r="E318" s="1">
         <v>5.7931034482758621</v>
@@ -17356,7 +17424,7 @@
         <v>16320</v>
       </c>
       <c r="D319">
-        <v>2475</v>
+        <v>24.75</v>
       </c>
       <c r="E319" s="1">
         <v>5.6275862068965514</v>
@@ -17409,7 +17477,7 @@
         <v>15600</v>
       </c>
       <c r="D320">
-        <v>2459</v>
+        <v>24.59</v>
       </c>
       <c r="E320" s="1">
         <v>5.3793103448275863</v>
@@ -17462,7 +17530,7 @@
         <v>17760</v>
       </c>
       <c r="D321">
-        <v>2292</v>
+        <v>22.92</v>
       </c>
       <c r="E321" s="1">
         <v>6.1241379310344826</v>
@@ -17515,7 +17583,7 @@
         <v>18000</v>
       </c>
       <c r="D322">
-        <v>2180</v>
+        <v>21.8</v>
       </c>
       <c r="E322" s="1">
         <v>6.2068965517241379</v>
@@ -17568,7 +17636,7 @@
         <v>17760</v>
       </c>
       <c r="D323">
-        <v>1858</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="E323" s="1">
         <v>6.1241379310344826</v>
@@ -17621,7 +17689,7 @@
         <v>18000</v>
       </c>
       <c r="D324">
-        <v>2145</v>
+        <v>21.45</v>
       </c>
       <c r="E324" s="1">
         <v>6.2068965517241379</v>
@@ -17674,7 +17742,7 @@
         <v>17520</v>
       </c>
       <c r="D325">
-        <v>2268</v>
+        <v>22.68</v>
       </c>
       <c r="E325" s="1">
         <v>6.0413793103448272</v>
@@ -17727,7 +17795,7 @@
         <v>16560</v>
       </c>
       <c r="D326">
-        <v>2203</v>
+        <v>22.03</v>
       </c>
       <c r="E326" s="1">
         <v>5.7103448275862068</v>
@@ -17780,7 +17848,7 @@
         <v>15840</v>
       </c>
       <c r="D327">
-        <v>2211</v>
+        <v>22.11</v>
       </c>
       <c r="E327" s="1">
         <v>5.4620689655172416</v>
@@ -17833,7 +17901,7 @@
         <v>15600</v>
       </c>
       <c r="D328">
-        <v>2410</v>
+        <v>24.1</v>
       </c>
       <c r="E328" s="1">
         <v>5.3793103448275863</v>
@@ -17886,7 +17954,7 @@
         <v>16320</v>
       </c>
       <c r="D329">
-        <v>2861</v>
+        <v>28.61</v>
       </c>
       <c r="E329" s="1">
         <v>5.6275862068965514</v>
@@ -17939,7 +18007,7 @@
         <v>16320</v>
       </c>
       <c r="D330">
-        <v>2084</v>
+        <v>20.84</v>
       </c>
       <c r="E330" s="1">
         <v>5.6275862068965514</v>
@@ -17992,7 +18060,7 @@
         <v>16080</v>
       </c>
       <c r="D331">
-        <v>2331</v>
+        <v>23.31</v>
       </c>
       <c r="E331" s="1">
         <v>5.544827586206897</v>
@@ -18045,7 +18113,7 @@
         <v>15360</v>
       </c>
       <c r="D332">
-        <v>2231</v>
+        <v>22.31</v>
       </c>
       <c r="E332" s="1">
         <v>5.296551724137931</v>
@@ -18098,7 +18166,7 @@
         <v>16560</v>
       </c>
       <c r="D333">
-        <v>2084</v>
+        <v>20.84</v>
       </c>
       <c r="E333" s="1">
         <v>5.7103448275862068</v>
@@ -18151,7 +18219,7 @@
         <v>16560</v>
       </c>
       <c r="D334">
-        <v>1741</v>
+        <v>17.41</v>
       </c>
       <c r="E334" s="1">
         <v>5.7103448275862068</v>
@@ -18204,7 +18272,7 @@
         <v>18720</v>
       </c>
       <c r="D335">
-        <v>2108</v>
+        <v>21.08</v>
       </c>
       <c r="E335" s="1">
         <v>6.455172413793103</v>
@@ -18257,7 +18325,7 @@
         <v>16080</v>
       </c>
       <c r="D336">
-        <v>1996</v>
+        <v>19.96</v>
       </c>
       <c r="E336" s="1">
         <v>5.544827586206897</v>
@@ -18310,7 +18378,7 @@
         <v>18000</v>
       </c>
       <c r="D337">
-        <v>2386</v>
+        <v>23.86</v>
       </c>
       <c r="E337" s="1">
         <v>6.2068965517241379</v>
@@ -18363,7 +18431,7 @@
         <v>18480</v>
       </c>
       <c r="D338">
-        <v>2617</v>
+        <v>26.17</v>
       </c>
       <c r="E338" s="1">
         <v>6.3724137931034486</v>
@@ -18416,7 +18484,7 @@
         <v>18480</v>
       </c>
       <c r="D339">
-        <v>2438</v>
+        <v>24.38</v>
       </c>
       <c r="E339" s="1">
         <v>6.3724137931034486</v>
@@ -18469,7 +18537,7 @@
         <v>18480</v>
       </c>
       <c r="D340">
-        <v>2397</v>
+        <v>23.97</v>
       </c>
       <c r="E340" s="1">
         <v>6.3724137931034486</v>
@@ -18522,7 +18590,7 @@
         <v>18000</v>
       </c>
       <c r="D341">
-        <v>2275</v>
+        <v>22.75</v>
       </c>
       <c r="E341" s="1">
         <v>6.2068965517241379</v>
@@ -18543,7 +18611,7 @@
         <v>900</v>
       </c>
       <c r="K341" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L341" s="1" t="e">
         <v>#VALUE!</v>
@@ -18575,7 +18643,7 @@
         <v>17760</v>
       </c>
       <c r="D342">
-        <v>2296</v>
+        <v>22.96</v>
       </c>
       <c r="E342" s="1">
         <v>6.1241379310344826</v>
@@ -18628,7 +18696,7 @@
         <v>18240</v>
       </c>
       <c r="D343">
-        <v>2499</v>
+        <v>24.99</v>
       </c>
       <c r="E343" s="1">
         <v>6.2896551724137932</v>
@@ -18681,7 +18749,7 @@
         <v>17520</v>
       </c>
       <c r="D344">
-        <v>2442</v>
+        <v>24.42</v>
       </c>
       <c r="E344" s="1">
         <v>6.0413793103448272</v>
@@ -18734,7 +18802,7 @@
         <v>18720</v>
       </c>
       <c r="D345">
-        <v>2588</v>
+        <v>25.88</v>
       </c>
       <c r="E345" s="1">
         <v>6.455172413793103</v>
@@ -18787,7 +18855,7 @@
         <v>18720</v>
       </c>
       <c r="D346">
-        <v>2629</v>
+        <v>26.29</v>
       </c>
       <c r="E346" s="1">
         <v>6.455172413793103</v>
@@ -18840,7 +18908,7 @@
         <v>18720</v>
       </c>
       <c r="D347">
-        <v>2637</v>
+        <v>26.37</v>
       </c>
       <c r="E347" s="1">
         <v>6.455172413793103</v>
@@ -18893,7 +18961,7 @@
         <v>18720</v>
       </c>
       <c r="D348">
-        <v>2385</v>
+        <v>23.85</v>
       </c>
       <c r="E348" s="1">
         <v>6.455172413793103</v>
@@ -18946,7 +19014,7 @@
         <v>18720</v>
       </c>
       <c r="D349">
-        <v>1820</v>
+        <v>18.2</v>
       </c>
       <c r="E349" s="1">
         <v>6.455172413793103</v>
@@ -18999,7 +19067,7 @@
         <v>18240</v>
       </c>
       <c r="D350">
-        <v>2397</v>
+        <v>23.97</v>
       </c>
       <c r="E350" s="1">
         <v>6.2896551724137932</v>
@@ -19052,7 +19120,7 @@
         <v>19200</v>
       </c>
       <c r="D351">
-        <v>2275</v>
+        <v>22.75</v>
       </c>
       <c r="E351" s="1">
         <v>6.6206896551724137</v>
@@ -19105,7 +19173,7 @@
         <v>18480</v>
       </c>
       <c r="D352">
-        <v>2272</v>
+        <v>22.72</v>
       </c>
       <c r="E352" s="1">
         <v>6.3724137931034486</v>
@@ -19158,7 +19226,7 @@
         <v>18960</v>
       </c>
       <c r="D353">
-        <v>2276</v>
+        <v>22.76</v>
       </c>
       <c r="E353" s="1">
         <v>6.5379310344827584</v>
@@ -19211,7 +19279,7 @@
         <v>18960</v>
       </c>
       <c r="D354">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="E354" s="1">
         <v>6.5379310344827584</v>
@@ -19264,7 +19332,7 @@
         <v>19680</v>
       </c>
       <c r="D355">
-        <v>2219</v>
+        <v>22.19</v>
       </c>
       <c r="E355" s="1">
         <v>6.7862068965517244</v>
@@ -19317,7 +19385,7 @@
         <v>17760</v>
       </c>
       <c r="D356">
-        <v>2402</v>
+        <v>24.02</v>
       </c>
       <c r="E356" s="1">
         <v>6.1241379310344826</v>
@@ -19370,7 +19438,7 @@
         <v>17760</v>
       </c>
       <c r="D357">
-        <v>2280</v>
+        <v>22.8</v>
       </c>
       <c r="E357" s="1">
         <v>6.1241379310344826</v>
@@ -19423,7 +19491,7 @@
         <v>18000</v>
       </c>
       <c r="D358">
-        <v>2549</v>
+        <v>25.49</v>
       </c>
       <c r="E358" s="1">
         <v>6.2068965517241379</v>
@@ -19476,7 +19544,7 @@
         <v>17520</v>
       </c>
       <c r="D359">
-        <v>2362</v>
+        <v>23.62</v>
       </c>
       <c r="E359" s="1">
         <v>6.0413793103448272</v>
@@ -19529,7 +19597,7 @@
         <v>17520</v>
       </c>
       <c r="D360">
-        <v>2171</v>
+        <v>21.71</v>
       </c>
       <c r="E360" s="1">
         <v>6.0413793103448272</v>
@@ -19582,7 +19650,7 @@
         <v>17520</v>
       </c>
       <c r="D361">
-        <v>2451</v>
+        <v>24.51</v>
       </c>
       <c r="E361" s="1">
         <v>6.0413793103448272</v>
@@ -19635,7 +19703,7 @@
         <v>17760</v>
       </c>
       <c r="D362">
-        <v>1663</v>
+        <v>16.63</v>
       </c>
       <c r="E362" s="1">
         <v>6.1241379310344826</v>
@@ -19688,7 +19756,7 @@
         <v>16800</v>
       </c>
       <c r="D363">
-        <v>1939</v>
+        <v>19.39</v>
       </c>
       <c r="E363" s="1">
         <v>5.7931034482758621</v>
@@ -19741,7 +19809,7 @@
         <v>17520</v>
       </c>
       <c r="D364">
-        <v>2195</v>
+        <v>21.95</v>
       </c>
       <c r="E364" s="1">
         <v>6.0413793103448272</v>
@@ -19794,7 +19862,7 @@
         <v>16800</v>
       </c>
       <c r="D365">
-        <v>1703</v>
+        <v>17.03</v>
       </c>
       <c r="E365" s="1">
         <v>5.7931034482758621</v>
@@ -19847,7 +19915,7 @@
         <v>18000</v>
       </c>
       <c r="D366">
-        <v>1964</v>
+        <v>19.64</v>
       </c>
       <c r="E366" s="1">
         <v>6.2068965517241379</v>
@@ -19900,7 +19968,7 @@
         <v>18240</v>
       </c>
       <c r="D367">
-        <v>2048</v>
+        <v>20.48</v>
       </c>
       <c r="E367" s="1">
         <v>6.2896551724137932</v>
@@ -19953,7 +20021,7 @@
         <v>16800</v>
       </c>
       <c r="D368">
-        <v>2226</v>
+        <v>22.26</v>
       </c>
       <c r="E368" s="1">
         <v>5.7931034482758621</v>
@@ -20006,7 +20074,7 @@
         <v>16800</v>
       </c>
       <c r="D369">
-        <v>2528</v>
+        <v>25.28</v>
       </c>
       <c r="E369" s="1">
         <v>5.7931034482758621</v>
@@ -20059,7 +20127,7 @@
         <v>16800</v>
       </c>
       <c r="D370">
-        <v>2415</v>
+        <v>24.15</v>
       </c>
       <c r="E370" s="1">
         <v>5.7931034482758621</v>
@@ -20112,7 +20180,7 @@
         <v>16800</v>
       </c>
       <c r="D371">
-        <v>2480</v>
+        <v>24.8</v>
       </c>
       <c r="E371" s="1">
         <v>5.7931034482758621</v>
@@ -20165,7 +20233,7 @@
         <v>17520</v>
       </c>
       <c r="D372">
-        <v>2258</v>
+        <v>22.58</v>
       </c>
       <c r="E372" s="1">
         <v>6.0413793103448272</v>
@@ -20218,7 +20286,7 @@
         <v>15600</v>
       </c>
       <c r="D373">
-        <v>2347</v>
+        <v>23.47</v>
       </c>
       <c r="E373" s="1">
         <v>5.3793103448275863</v>
@@ -20271,7 +20339,7 @@
         <v>16800</v>
       </c>
       <c r="D374">
-        <v>2117</v>
+        <v>21.17</v>
       </c>
       <c r="E374" s="1">
         <v>5.7931034482758621</v>
@@ -20324,7 +20392,7 @@
         <v>16800</v>
       </c>
       <c r="D375">
-        <v>2492</v>
+        <v>24.92</v>
       </c>
       <c r="E375" s="1">
         <v>5.7931034482758621</v>
@@ -20377,7 +20445,7 @@
         <v>16800</v>
       </c>
       <c r="D376">
-        <v>2242</v>
+        <v>22.42</v>
       </c>
       <c r="E376" s="1">
         <v>5.7931034482758621</v>
@@ -20430,7 +20498,7 @@
         <v>17520</v>
       </c>
       <c r="D377">
-        <v>2625</v>
+        <v>26.25</v>
       </c>
       <c r="E377" s="1">
         <v>6.0413793103448272</v>
@@ -20483,7 +20551,7 @@
         <v>16800</v>
       </c>
       <c r="D378">
-        <v>2056</v>
+        <v>20.56</v>
       </c>
       <c r="E378" s="1">
         <v>5.7931034482758621</v>
@@ -20536,7 +20604,7 @@
         <v>16320</v>
       </c>
       <c r="D379">
-        <v>2285</v>
+        <v>22.85</v>
       </c>
       <c r="E379" s="1">
         <v>5.6275862068965514</v>
@@ -20589,7 +20657,7 @@
         <v>16560</v>
       </c>
       <c r="D380">
-        <v>2270</v>
+        <v>22.7</v>
       </c>
       <c r="E380" s="1">
         <v>5.7103448275862068</v>
@@ -20642,7 +20710,7 @@
         <v>16560</v>
       </c>
       <c r="D381">
-        <v>2450</v>
+        <v>24.5</v>
       </c>
       <c r="E381" s="1">
         <v>5.7103448275862068</v>
@@ -20695,7 +20763,7 @@
         <v>16800</v>
       </c>
       <c r="D382">
-        <v>2532</v>
+        <v>25.32</v>
       </c>
       <c r="E382" s="1">
         <v>5.7931034482758621</v>
@@ -20748,7 +20816,7 @@
         <v>16320</v>
       </c>
       <c r="D383">
-        <v>2612</v>
+        <v>26.12</v>
       </c>
       <c r="E383" s="1">
         <v>5.6275862068965514</v>
@@ -20801,7 +20869,7 @@
         <v>11280</v>
       </c>
       <c r="D384">
-        <v>2108</v>
+        <v>21.08</v>
       </c>
       <c r="E384" s="1">
         <v>3.8896551724137929</v>
@@ -20854,7 +20922,7 @@
         <v>7440</v>
       </c>
       <c r="D385">
-        <v>2042</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="E385" s="1">
         <v>2.5655172413793101</v>
@@ -20907,7 +20975,7 @@
         <v>10320</v>
       </c>
       <c r="D386">
-        <v>1916</v>
+        <v>19.16</v>
       </c>
       <c r="E386" s="1">
         <v>3.5586206896551724</v>
@@ -20960,7 +21028,7 @@
         <v>10320</v>
       </c>
       <c r="D387">
-        <v>2140</v>
+        <v>21.4</v>
       </c>
       <c r="E387" s="1">
         <v>3.5586206896551724</v>
@@ -21013,7 +21081,7 @@
         <v>7920</v>
       </c>
       <c r="D388">
-        <v>2175</v>
+        <v>21.75</v>
       </c>
       <c r="E388" s="1">
         <v>2.7310344827586208</v>
@@ -21066,7 +21134,7 @@
         <v>10560</v>
       </c>
       <c r="D389">
-        <v>1963</v>
+        <v>19.63</v>
       </c>
       <c r="E389" s="1">
         <v>3.6413793103448278</v>
@@ -21119,7 +21187,7 @@
         <v>5280</v>
       </c>
       <c r="D390">
-        <v>1386</v>
+        <v>13.86</v>
       </c>
       <c r="E390" s="1">
         <v>1.8206896551724139</v>
@@ -21172,7 +21240,7 @@
         <v>15120</v>
       </c>
       <c r="D391">
-        <v>1551</v>
+        <v>15.51</v>
       </c>
       <c r="E391" s="1">
         <v>5.2137931034482756</v>
@@ -21225,7 +21293,7 @@
         <v>15120</v>
       </c>
       <c r="D392">
-        <v>1535</v>
+        <v>15.35</v>
       </c>
       <c r="E392" s="1">
         <v>5.2137931034482756</v>
@@ -21278,7 +21346,7 @@
         <v>15600</v>
       </c>
       <c r="D393">
-        <v>2136</v>
+        <v>21.36</v>
       </c>
       <c r="E393" s="1">
         <v>5.3793103448275863</v>
@@ -21331,7 +21399,7 @@
         <v>6720</v>
       </c>
       <c r="D394">
-        <v>2257</v>
+        <v>22.57</v>
       </c>
       <c r="E394" s="1">
         <v>2.317241379310345</v>
@@ -21384,7 +21452,7 @@
         <v>13680</v>
       </c>
       <c r="D395">
-        <v>1963</v>
+        <v>19.63</v>
       </c>
       <c r="E395" s="1">
         <v>4.7172413793103445</v>
@@ -21437,7 +21505,7 @@
         <v>13920</v>
       </c>
       <c r="D396">
-        <v>2159</v>
+        <v>21.59</v>
       </c>
       <c r="E396" s="1">
         <v>4.8</v>
@@ -21490,7 +21558,7 @@
         <v>13200</v>
       </c>
       <c r="D397">
-        <v>2435</v>
+        <v>24.35</v>
       </c>
       <c r="E397" s="1">
         <v>4.5517241379310347</v>
@@ -21543,7 +21611,7 @@
         <v>13920</v>
       </c>
       <c r="D398">
-        <v>2056</v>
+        <v>20.56</v>
       </c>
       <c r="E398" s="1">
         <v>4.8</v>
@@ -21596,7 +21664,7 @@
         <v>13920</v>
       </c>
       <c r="D399">
-        <v>2220</v>
+        <v>22.2</v>
       </c>
       <c r="E399" s="1">
         <v>4.8</v>
@@ -21649,7 +21717,7 @@
         <v>15600</v>
       </c>
       <c r="D400">
-        <v>2353</v>
+        <v>23.53</v>
       </c>
       <c r="E400" s="1">
         <v>5.3793103448275863</v>
@@ -21702,7 +21770,7 @@
         <v>16320</v>
       </c>
       <c r="D401">
-        <v>2384</v>
+        <v>23.84</v>
       </c>
       <c r="E401" s="1">
         <v>5.6275862068965514</v>
@@ -21755,7 +21823,7 @@
         <v>16080</v>
       </c>
       <c r="D402">
-        <v>2740</v>
+        <v>27.4</v>
       </c>
       <c r="E402" s="1">
         <v>5.544827586206897</v>
@@ -21808,7 +21876,7 @@
         <v>16800</v>
       </c>
       <c r="D403">
-        <v>2537</v>
+        <v>25.37</v>
       </c>
       <c r="E403" s="1">
         <v>5.7931034482758621</v>
@@ -21861,7 +21929,7 @@
         <v>15120</v>
       </c>
       <c r="D404">
-        <v>2345</v>
+        <v>23.45</v>
       </c>
       <c r="E404" s="1">
         <v>5.2137931034482756</v>
@@ -21914,7 +21982,7 @@
         <v>16560</v>
       </c>
       <c r="D405">
-        <v>2345</v>
+        <v>23.45</v>
       </c>
       <c r="E405" s="1">
         <v>5.7103448275862068</v>
@@ -21967,7 +22035,7 @@
         <v>16800</v>
       </c>
       <c r="D406">
-        <v>2599</v>
+        <v>25.99</v>
       </c>
       <c r="E406" s="1">
         <v>5.7931034482758621</v>
@@ -22020,7 +22088,7 @@
         <v>17520</v>
       </c>
       <c r="D407">
-        <v>2408</v>
+        <v>24.08</v>
       </c>
       <c r="E407" s="1">
         <v>6.0413793103448272</v>
@@ -22073,7 +22141,7 @@
         <v>16800</v>
       </c>
       <c r="D408">
-        <v>2341</v>
+        <v>23.41</v>
       </c>
       <c r="E408" s="1">
         <v>5.7931034482758621</v>
@@ -22126,7 +22194,7 @@
         <v>17280</v>
       </c>
       <c r="D409">
-        <v>2209</v>
+        <v>22.09</v>
       </c>
       <c r="E409" s="1">
         <v>5.9586206896551728</v>
@@ -22179,7 +22247,7 @@
         <v>17280</v>
       </c>
       <c r="D410">
-        <v>2783</v>
+        <v>27.83</v>
       </c>
       <c r="E410" s="1">
         <v>5.9586206896551728</v>
@@ -22232,7 +22300,7 @@
         <v>16800</v>
       </c>
       <c r="D411">
-        <v>2814</v>
+        <v>28.14</v>
       </c>
       <c r="E411" s="1">
         <v>5.7931034482758621</v>
@@ -22285,7 +22353,7 @@
         <v>17520</v>
       </c>
       <c r="D412">
-        <v>2330</v>
+        <v>23.3</v>
       </c>
       <c r="E412" s="1">
         <v>6.0413793103448272</v>
@@ -22338,7 +22406,7 @@
         <v>17520</v>
       </c>
       <c r="D413">
-        <v>2345</v>
+        <v>23.45</v>
       </c>
       <c r="E413" s="1">
         <v>6.0413793103448272</v>
@@ -22391,7 +22459,7 @@
         <v>17280</v>
       </c>
       <c r="D414">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="E414" s="1">
         <v>5.9586206896551728</v>
@@ -22444,7 +22512,7 @@
         <v>17520</v>
       </c>
       <c r="D415">
-        <v>2712</v>
+        <v>27.12</v>
       </c>
       <c r="E415" s="1">
         <v>6.0413793103448272</v>
@@ -22497,7 +22565,7 @@
         <v>17520</v>
       </c>
       <c r="D416">
-        <v>2240</v>
+        <v>22.4</v>
       </c>
       <c r="E416" s="1">
         <v>6.0413793103448272</v>
@@ -22550,7 +22618,7 @@
         <v>18000</v>
       </c>
       <c r="D417">
-        <v>2200</v>
+        <v>22</v>
       </c>
       <c r="E417" s="1">
         <v>6.2068965517241379</v>
@@ -22603,7 +22671,7 @@
         <v>18480</v>
       </c>
       <c r="D418">
-        <v>2364</v>
+        <v>23.64</v>
       </c>
       <c r="E418" s="1">
         <v>6.3724137931034486</v>
@@ -22656,7 +22724,7 @@
         <v>19200</v>
       </c>
       <c r="D419">
-        <v>2760</v>
+        <v>27.6</v>
       </c>
       <c r="E419" s="1">
         <v>6.6206896551724137</v>
@@ -22709,7 +22777,7 @@
         <v>18240</v>
       </c>
       <c r="D420">
-        <v>2580</v>
+        <v>25.8</v>
       </c>
       <c r="E420" s="1">
         <v>6.2896551724137932</v>
@@ -22762,7 +22830,7 @@
         <v>17760</v>
       </c>
       <c r="D421">
-        <v>2468</v>
+        <v>24.68</v>
       </c>
       <c r="E421" s="1">
         <v>6.1241379310344826</v>
@@ -22815,7 +22883,7 @@
         <v>17760</v>
       </c>
       <c r="D422">
-        <v>2760</v>
+        <v>27.6</v>
       </c>
       <c r="E422" s="1">
         <v>6.1241379310344826</v>
@@ -22868,7 +22936,7 @@
         <v>17040</v>
       </c>
       <c r="D423">
-        <v>2332</v>
+        <v>23.32</v>
       </c>
       <c r="E423" s="1">
         <v>5.8758620689655174</v>
@@ -22921,7 +22989,7 @@
         <v>17280</v>
       </c>
       <c r="D424">
-        <v>2260</v>
+        <v>22.6</v>
       </c>
       <c r="E424" s="1">
         <v>5.9586206896551728</v>
@@ -22974,7 +23042,7 @@
         <v>15840</v>
       </c>
       <c r="D425">
-        <v>2405</v>
+        <v>24.05</v>
       </c>
       <c r="E425" s="1">
         <v>5.4620689655172416</v>
@@ -23027,7 +23095,7 @@
         <v>17520</v>
       </c>
       <c r="D426">
-        <v>2187</v>
+        <v>21.87</v>
       </c>
       <c r="E426" s="1">
         <v>6.0413793103448272</v>
@@ -23080,7 +23148,7 @@
         <v>17520</v>
       </c>
       <c r="D427">
-        <v>2318</v>
+        <v>23.18</v>
       </c>
       <c r="E427" s="1">
         <v>6.0413793103448272</v>
@@ -23133,7 +23201,7 @@
         <v>17760</v>
       </c>
       <c r="D428">
-        <v>2306</v>
+        <v>23.06</v>
       </c>
       <c r="E428" s="1">
         <v>6.1241379310344826</v>
@@ -23186,7 +23254,7 @@
         <v>17760</v>
       </c>
       <c r="D429">
-        <v>2417</v>
+        <v>24.17</v>
       </c>
       <c r="E429" s="1">
         <v>6.1241379310344826</v>
@@ -23239,7 +23307,7 @@
         <v>17280</v>
       </c>
       <c r="D430">
-        <v>2346</v>
+        <v>23.46</v>
       </c>
       <c r="E430" s="1">
         <v>5.9586206896551728</v>
@@ -23292,7 +23360,7 @@
         <v>15120</v>
       </c>
       <c r="D431">
-        <v>2079</v>
+        <v>20.79</v>
       </c>
       <c r="E431" s="1">
         <v>5.2137931034482756</v>
@@ -23345,7 +23413,7 @@
         <v>16080</v>
       </c>
       <c r="D432">
-        <v>2350</v>
+        <v>23.5</v>
       </c>
       <c r="E432" s="1">
         <v>5.544827586206897</v>
@@ -23398,7 +23466,7 @@
         <v>16320</v>
       </c>
       <c r="D433">
-        <v>2068</v>
+        <v>20.68</v>
       </c>
       <c r="E433" s="1">
         <v>5.6275862068965514</v>
@@ -23451,7 +23519,7 @@
         <v>16560</v>
       </c>
       <c r="D434">
-        <v>2107</v>
+        <v>21.07</v>
       </c>
       <c r="E434" s="1">
         <v>5.7103448275862068</v>
@@ -23504,7 +23572,7 @@
         <v>16560</v>
       </c>
       <c r="D435">
-        <v>2107</v>
+        <v>21.07</v>
       </c>
       <c r="E435" s="1">
         <v>5.7103448275862068</v>
@@ -23557,7 +23625,7 @@
         <v>16800</v>
       </c>
       <c r="D436">
-        <v>2227</v>
+        <v>22.27</v>
       </c>
       <c r="E436" s="1">
         <v>5.7931034482758621</v>
@@ -23610,7 +23678,7 @@
         <v>16080</v>
       </c>
       <c r="D437">
-        <v>2286</v>
+        <v>22.86</v>
       </c>
       <c r="E437" s="1">
         <v>5.544827586206897</v>
